--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_23_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_23_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>497591.0195320827</v>
+        <v>376779.5616164837</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21138955.59783733</v>
+        <v>21138955.59783732</v>
       </c>
     </row>
     <row r="9">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>56.70400066026085</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>92.66494928910224</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>92.66494928910224</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>92.66494928910224</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>24.91528667358037</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>92.66494928910224</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="G12" t="n">
-        <v>92.66494928910224</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="H12" t="n">
-        <v>92.66494928910224</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.63472101605001</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>15.98456631779122</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1618,58 +1618,58 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>56.70400066026085</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="H14" t="n">
+      <c r="U14" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="I14" t="n">
+      <c r="V14" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="J14" t="n">
-        <v>24.91528667358037</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1694,64 +1694,64 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="V15" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="H15" t="n">
+      <c r="W15" t="n">
+        <v>81.61928733384123</v>
+      </c>
+      <c r="X15" t="n">
         <v>92.6649492891022</v>
-      </c>
-      <c r="I15" t="n">
-        <v>65.63472101605001</v>
-      </c>
-      <c r="J15" t="n">
-        <v>15.98456631779121</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1888,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R17" t="n">
-        <v>81.61928733384123</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>92.6649492891022</v>
       </c>
       <c r="T17" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>92.6649492891022</v>
+        <v>57.96571614961795</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>92.6649492891022</v>
       </c>
       <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
         <v>92.6649492891022</v>
-      </c>
-      <c r="V18" t="n">
-        <v>81.61928733384123</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,16 +2095,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>56.70400066026085</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>24.91528667358037</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>81.61928733384117</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
     </row>
     <row r="21">
@@ -2210,19 +2210,19 @@
         <v>81.61928733384123</v>
       </c>
       <c r="S21" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="T21" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="U21" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>23.65357118422324</v>
       </c>
       <c r="R23" t="n">
-        <v>98.8247775506934</v>
+        <v>45.52347904402988</v>
       </c>
       <c r="S23" t="n">
-        <v>45.52347904402988</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,19 +2402,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>2.475385653871037</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="G24" t="n">
         <v>98.8247775506934</v>
       </c>
       <c r="H24" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>84.56947841277972</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>87.04486406665072</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2566,64 +2566,64 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>69.17705022825315</v>
+      </c>
+      <c r="W26" t="n">
         <v>98.8247775506934</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>44.26176355467279</v>
-      </c>
-      <c r="J26" t="n">
-        <v>24.91528667358037</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="Y26" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,73 +2633,73 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
         <v>98.8247775506934</v>
       </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
       <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>87.04486406665072</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
         <v>98.8247775506934</v>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>87.04486406665072</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="X27" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>98.8247775506934</v>
       </c>
       <c r="C29" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>45.52347904402989</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>24.91528667358037</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>23.65357118422324</v>
       </c>
       <c r="R29" t="n">
-        <v>20.6081923704495</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
     </row>
     <row r="30">
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>87.04486406665072</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>98.8247775506934</v>
@@ -2936,7 +2936,7 @@
         <v>98.8247775506934</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>87.04486406665072</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3028,73 +3028,73 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>69.17705022825315</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>98.8247775506934</v>
       </c>
-      <c r="C32" t="n">
-        <v>69.17705022825315</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>98.8247775506934</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>98.8247775506934</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3116,13 +3116,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>2.475385653871041</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>84.56947841277972</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>98.8247775506934</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="U33" t="n">
-        <v>98.8247775506934</v>
+        <v>87.04486406665072</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>81.61928733384114</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>57.96571614961792</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3356,61 +3356,61 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>81.61928733384123</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
         <v>92.66494928910222</v>
       </c>
-      <c r="H36" t="n">
+      <c r="V36" t="n">
         <v>92.66494928910222</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>92.66494928910222</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>81.6192873338412</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3502,65 +3502,65 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>81.61928733384114</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
         <v>92.66494928910222</v>
       </c>
-      <c r="C38" t="n">
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
         <v>92.66494928910222</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="U38" t="n">
         <v>92.66494928910222</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>81.61928733384117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,67 +3581,67 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>84.56947841277972</v>
+      </c>
+      <c r="S39" t="n">
         <v>92.66494928910222</v>
       </c>
-      <c r="C39" t="n">
+      <c r="T39" t="n">
+        <v>89.71475821016375</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
         <v>92.66494928910222</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>81.6192873338412</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>92.66494928910222</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>92.66494928910221</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910221</v>
       </c>
       <c r="G41" t="n">
-        <v>92.66494928910225</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>92.66494928910221</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>81.61928733384117</v>
       </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
       <c r="W41" t="n">
-        <v>92.66494928910225</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>92.66494928910225</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>92.66494928910221</v>
       </c>
       <c r="T42" t="n">
-        <v>81.61928733384129</v>
+        <v>92.66494928910221</v>
       </c>
       <c r="U42" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910221</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>92.66494928910225</v>
+        <v>81.61928733384119</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3985,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>92.66494928910225</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>92.66494928910225</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>92.66494928910225</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>81.61928733384119</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>92.66494928910221</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>92.66494928910221</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>92.66494928910221</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>57.96571614961801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>92.66494928910221</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>81.61928733384129</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>92.66494928910221</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>24.08003719411364</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>92.66494928910225</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>92.66494928910225</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>92.66494928910225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>370.659797156409</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="C11" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D11" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E11" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F11" t="n">
-        <v>313.3830288127111</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G11" t="n">
-        <v>219.78206993483</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H11" t="n">
-        <v>126.181111056949</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I11" t="n">
-        <v>32.58015217906794</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J11" t="n">
-        <v>7.413195943128179</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K11" t="n">
-        <v>21.18357364821452</v>
+        <v>21.1835736482145</v>
       </c>
       <c r="L11" t="n">
-        <v>75.16870670940379</v>
+        <v>75.16870670940375</v>
       </c>
       <c r="M11" t="n">
         <v>166.907006505615</v>
@@ -5056,37 +5056,37 @@
         <v>258.6453063018262</v>
       </c>
       <c r="O11" t="n">
-        <v>337.6943058037294</v>
+        <v>337.6943058037293</v>
       </c>
       <c r="P11" t="n">
-        <v>370.659797156409</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q11" t="n">
-        <v>370.659797156409</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R11" t="n">
-        <v>370.659797156409</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S11" t="n">
-        <v>370.659797156409</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="T11" t="n">
-        <v>370.659797156409</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="U11" t="n">
-        <v>370.659797156409</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="V11" t="n">
-        <v>370.659797156409</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="W11" t="n">
-        <v>370.659797156409</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="X11" t="n">
-        <v>370.659797156409</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="Y11" t="n">
-        <v>370.659797156409</v>
+        <v>101.0141548210092</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>370.659797156409</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="C12" t="n">
-        <v>370.659797156409</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="D12" t="n">
-        <v>370.659797156409</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="E12" t="n">
-        <v>370.659797156409</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="F12" t="n">
-        <v>277.0588382785279</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="G12" t="n">
+        <v>7.413195943128176</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7.413195943128176</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.413195943128176</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7.413195943128176</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7.413195943128176</v>
+      </c>
+      <c r="L12" t="n">
+        <v>81.81537555601324</v>
+      </c>
+      <c r="M12" t="n">
+        <v>173.5536753522244</v>
+      </c>
+      <c r="N12" t="n">
+        <v>265.2919751484356</v>
+      </c>
+      <c r="O12" t="n">
+        <v>317.2247932514005</v>
+      </c>
+      <c r="P12" t="n">
+        <v>370.6597971564088</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>370.6597971564088</v>
+      </c>
+      <c r="R12" t="n">
+        <v>370.6597971564088</v>
+      </c>
+      <c r="S12" t="n">
+        <v>277.0588382785278</v>
+      </c>
+      <c r="T12" t="n">
         <v>183.4578794006468</v>
       </c>
-      <c r="H12" t="n">
-        <v>89.85692052276579</v>
-      </c>
-      <c r="I12" t="n">
-        <v>23.55922252675568</v>
-      </c>
-      <c r="J12" t="n">
-        <v>7.413195943128179</v>
-      </c>
-      <c r="K12" t="n">
-        <v>7.413195943128179</v>
-      </c>
-      <c r="L12" t="n">
-        <v>81.81537555601327</v>
-      </c>
-      <c r="M12" t="n">
-        <v>173.5536753522245</v>
-      </c>
-      <c r="N12" t="n">
-        <v>265.2919751484357</v>
-      </c>
-      <c r="O12" t="n">
-        <v>317.2247932514006</v>
-      </c>
-      <c r="P12" t="n">
-        <v>370.659797156409</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>370.659797156409</v>
-      </c>
-      <c r="R12" t="n">
-        <v>370.659797156409</v>
-      </c>
-      <c r="S12" t="n">
-        <v>370.659797156409</v>
-      </c>
-      <c r="T12" t="n">
-        <v>370.659797156409</v>
-      </c>
       <c r="U12" t="n">
-        <v>370.659797156409</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="V12" t="n">
-        <v>370.659797156409</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="W12" t="n">
-        <v>370.659797156409</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="X12" t="n">
-        <v>370.659797156409</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="Y12" t="n">
-        <v>370.659797156409</v>
+        <v>183.4578794006468</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.413195943128179</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C13" t="n">
-        <v>7.413195943128179</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D13" t="n">
-        <v>7.413195943128179</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E13" t="n">
-        <v>7.413195943128179</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F13" t="n">
-        <v>7.413195943128179</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G13" t="n">
-        <v>7.413195943128179</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H13" t="n">
-        <v>7.413195943128179</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I13" t="n">
-        <v>7.413195943128179</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J13" t="n">
-        <v>7.413195943128179</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K13" t="n">
-        <v>7.413195943128179</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L13" t="n">
-        <v>7.413195943128179</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="M13" t="n">
-        <v>7.413195943128179</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="N13" t="n">
-        <v>7.413195943128179</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="O13" t="n">
-        <v>7.413195943128179</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="P13" t="n">
-        <v>7.413195943128179</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.413195943128179</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="R13" t="n">
-        <v>7.413195943128179</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="S13" t="n">
-        <v>7.413195943128179</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="T13" t="n">
-        <v>7.413195943128179</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="U13" t="n">
-        <v>7.413195943128179</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="V13" t="n">
-        <v>7.413195943128179</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="W13" t="n">
-        <v>7.413195943128179</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X13" t="n">
-        <v>7.413195943128179</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.413195943128179</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C14" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D14" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E14" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F14" t="n">
-        <v>313.383028812711</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G14" t="n">
-        <v>219.78206993483</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H14" t="n">
-        <v>126.181111056949</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I14" t="n">
-        <v>32.58015217906794</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J14" t="n">
         <v>7.413195943128176</v>
       </c>
       <c r="K14" t="n">
-        <v>21.18357364821451</v>
+        <v>21.18357364821452</v>
       </c>
       <c r="L14" t="n">
-        <v>75.16870670940374</v>
+        <v>75.16870670940369</v>
       </c>
       <c r="M14" t="n">
-        <v>166.9070065056148</v>
+        <v>166.9070065056149</v>
       </c>
       <c r="N14" t="n">
         <v>258.6453063018261</v>
@@ -5308,22 +5308,22 @@
         <v>370.6597971564088</v>
       </c>
       <c r="T14" t="n">
-        <v>370.6597971564088</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="U14" t="n">
-        <v>370.6597971564088</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="V14" t="n">
-        <v>370.6597971564088</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="W14" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X14" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y14" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C15" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D15" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E15" t="n">
-        <v>277.0588382785278</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F15" t="n">
-        <v>277.0588382785278</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G15" t="n">
-        <v>183.4578794006468</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H15" t="n">
-        <v>89.85692052276578</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I15" t="n">
-        <v>23.55922252675566</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J15" t="n">
         <v>7.413195943128176</v>
       </c>
       <c r="K15" t="n">
-        <v>28.29609765201163</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L15" t="n">
-        <v>102.6982772648967</v>
+        <v>81.81537555601327</v>
       </c>
       <c r="M15" t="n">
-        <v>194.4365770611079</v>
+        <v>173.5536753522244</v>
       </c>
       <c r="N15" t="n">
-        <v>286.1748768573191</v>
+        <v>226.5580308522524</v>
       </c>
       <c r="O15" t="n">
         <v>317.2247932514005</v>
@@ -5390,19 +5390,19 @@
         <v>370.6597971564088</v>
       </c>
       <c r="U15" t="n">
-        <v>370.6597971564088</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="V15" t="n">
-        <v>370.6597971564088</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="W15" t="n">
-        <v>370.6597971564088</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="X15" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y15" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="16">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.413195943128176</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="C17" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="D17" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="E17" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="F17" t="n">
         <v>7.413195943128176</v>
@@ -5518,13 +5518,13 @@
         <v>7.413195943128176</v>
       </c>
       <c r="K17" t="n">
-        <v>21.18357364821452</v>
+        <v>21.18357364821451</v>
       </c>
       <c r="L17" t="n">
-        <v>75.16870670940369</v>
+        <v>75.16870670940366</v>
       </c>
       <c r="M17" t="n">
-        <v>166.9070065056149</v>
+        <v>166.9070065056148</v>
       </c>
       <c r="N17" t="n">
         <v>258.6453063018261</v>
@@ -5536,31 +5536,31 @@
         <v>370.6597971564088</v>
       </c>
       <c r="Q17" t="n">
-        <v>370.6597971564088</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="R17" t="n">
-        <v>288.2160725767712</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="S17" t="n">
+        <v>253.1663421328477</v>
+      </c>
+      <c r="T17" t="n">
+        <v>253.1663421328477</v>
+      </c>
+      <c r="U17" t="n">
         <v>194.6151136988902</v>
       </c>
-      <c r="T17" t="n">
-        <v>101.0141548210092</v>
-      </c>
-      <c r="U17" t="n">
-        <v>7.413195943128176</v>
-      </c>
       <c r="V17" t="n">
-        <v>7.413195943128176</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="W17" t="n">
-        <v>7.413195943128176</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="X17" t="n">
-        <v>7.413195943128176</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.413195943128176</v>
+        <v>194.6151136988902</v>
       </c>
     </row>
     <row r="18">
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.413195943128176</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="C18" t="n">
         <v>7.413195943128176</v>
@@ -5597,10 +5597,10 @@
         <v>7.413195943128176</v>
       </c>
       <c r="K18" t="n">
-        <v>28.29609765201163</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L18" t="n">
-        <v>43.08143125983008</v>
+        <v>81.81537555601327</v>
       </c>
       <c r="M18" t="n">
         <v>134.8197310560413</v>
@@ -5621,25 +5621,25 @@
         <v>370.6597971564088</v>
       </c>
       <c r="S18" t="n">
+        <v>370.6597971564088</v>
+      </c>
+      <c r="T18" t="n">
         <v>277.0588382785278</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
+        <v>277.0588382785278</v>
+      </c>
+      <c r="V18" t="n">
+        <v>277.0588382785278</v>
+      </c>
+      <c r="W18" t="n">
+        <v>277.0588382785278</v>
+      </c>
+      <c r="X18" t="n">
+        <v>277.0588382785278</v>
+      </c>
+      <c r="Y18" t="n">
         <v>183.4578794006468</v>
-      </c>
-      <c r="U18" t="n">
-        <v>89.85692052276578</v>
-      </c>
-      <c r="V18" t="n">
-        <v>7.413195943128176</v>
-      </c>
-      <c r="W18" t="n">
-        <v>7.413195943128176</v>
-      </c>
-      <c r="X18" t="n">
-        <v>7.413195943128176</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="19">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>277.0588382785278</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="C20" t="n">
-        <v>277.0588382785278</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="D20" t="n">
-        <v>277.0588382785278</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="E20" t="n">
-        <v>277.0588382785278</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="F20" t="n">
-        <v>277.0588382785278</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="G20" t="n">
-        <v>219.78206993483</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="H20" t="n">
-        <v>126.181111056949</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="I20" t="n">
-        <v>32.58015217906794</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="J20" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="K20" t="n">
         <v>21.18357364821452</v>
@@ -5767,7 +5767,7 @@
         <v>258.6453063018261</v>
       </c>
       <c r="O20" t="n">
-        <v>337.6943058037292</v>
+        <v>337.6943058037293</v>
       </c>
       <c r="P20" t="n">
         <v>370.6597971564088</v>
@@ -5782,22 +5782,22 @@
         <v>370.6597971564088</v>
       </c>
       <c r="T20" t="n">
-        <v>277.0588382785278</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U20" t="n">
-        <v>277.0588382785278</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="V20" t="n">
-        <v>277.0588382785278</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="W20" t="n">
-        <v>277.0588382785278</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="X20" t="n">
-        <v>277.0588382785278</v>
+        <v>288.2160725767713</v>
       </c>
       <c r="Y20" t="n">
-        <v>277.0588382785278</v>
+        <v>194.6151136988902</v>
       </c>
     </row>
     <row r="21">
@@ -5807,55 +5807,55 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="C21" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="D21" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="E21" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="F21" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="G21" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="H21" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="I21" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="J21" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="K21" t="n">
         <v>28.29609765201163</v>
       </c>
       <c r="L21" t="n">
-        <v>43.08143125983008</v>
+        <v>102.6982772648967</v>
       </c>
       <c r="M21" t="n">
         <v>134.8197310560413</v>
       </c>
       <c r="N21" t="n">
-        <v>226.5580308522524</v>
+        <v>226.5580308522526</v>
       </c>
       <c r="O21" t="n">
-        <v>317.2247932514005</v>
+        <v>317.2247932514006</v>
       </c>
       <c r="P21" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="Q21" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="R21" t="n">
-        <v>288.2160725767712</v>
+        <v>288.2160725767713</v>
       </c>
       <c r="S21" t="n">
         <v>194.6151136988902</v>
@@ -5864,19 +5864,19 @@
         <v>101.0141548210092</v>
       </c>
       <c r="U21" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="V21" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="W21" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="X21" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="Y21" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128178</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="C22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="D22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="E22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="F22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="G22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="H22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="I22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="J22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="K22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="L22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="M22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="N22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="O22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="P22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="Q22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="R22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="S22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="T22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="U22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="V22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="W22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="X22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="Y22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.905982204055472</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="C23" t="n">
-        <v>7.905982204055472</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="D23" t="n">
-        <v>7.905982204055472</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="E23" t="n">
-        <v>7.905982204055472</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="F23" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="G23" t="n">
         <v>7.905982204055472</v>
@@ -6013,28 +6013,28 @@
         <v>353.3583172506313</v>
       </c>
       <c r="R23" t="n">
-        <v>253.5353096236683</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="S23" t="n">
-        <v>207.5519974579815</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="T23" t="n">
-        <v>207.5519974579815</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="U23" t="n">
-        <v>207.5519974579815</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="V23" t="n">
-        <v>207.5519974579815</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="W23" t="n">
-        <v>207.5519974579815</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="X23" t="n">
-        <v>207.5519974579815</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="Y23" t="n">
-        <v>107.7289898310185</v>
+        <v>307.3750050849446</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>210.0523870073462</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="C24" t="n">
-        <v>210.0523870073462</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="D24" t="n">
-        <v>210.0523870073462</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="E24" t="n">
-        <v>210.0523870073462</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="F24" t="n">
-        <v>207.5519974579815</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="G24" t="n">
-        <v>107.7289898310185</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="H24" t="n">
         <v>7.905982204055472</v>
@@ -6092,28 +6092,28 @@
         <v>395.2991102027736</v>
       </c>
       <c r="R24" t="n">
-        <v>309.8753946343093</v>
+        <v>395.2991102027736</v>
       </c>
       <c r="S24" t="n">
-        <v>210.0523870073462</v>
+        <v>395.2991102027736</v>
       </c>
       <c r="T24" t="n">
-        <v>210.0523870073462</v>
+        <v>395.2991102027736</v>
       </c>
       <c r="U24" t="n">
-        <v>210.0523870073462</v>
+        <v>395.2991102027736</v>
       </c>
       <c r="V24" t="n">
-        <v>210.0523870073462</v>
+        <v>395.2991102027736</v>
       </c>
       <c r="W24" t="n">
-        <v>210.0523870073462</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="X24" t="n">
-        <v>210.0523870073462</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="Y24" t="n">
-        <v>210.0523870073462</v>
+        <v>307.3750050849446</v>
       </c>
     </row>
     <row r="25">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>277.4278057693484</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="C26" t="n">
-        <v>177.6047981423853</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="D26" t="n">
-        <v>177.6047981423853</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="E26" t="n">
-        <v>177.6047981423853</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="F26" t="n">
-        <v>77.7817905154223</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="G26" t="n">
-        <v>77.7817905154223</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="H26" t="n">
-        <v>77.7817905154223</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="I26" t="n">
-        <v>33.07293843999524</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="J26" t="n">
         <v>7.905982204055472</v>
@@ -6262,16 +6262,16 @@
         <v>377.2508133963114</v>
       </c>
       <c r="V26" t="n">
-        <v>377.2508133963114</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="W26" t="n">
-        <v>377.2508133963114</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="X26" t="n">
-        <v>377.2508133963114</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="Y26" t="n">
-        <v>277.4278057693484</v>
+        <v>107.7289898310185</v>
       </c>
     </row>
     <row r="27">
@@ -6287,13 +6287,13 @@
         <v>195.6530949488475</v>
       </c>
       <c r="D27" t="n">
-        <v>195.6530949488475</v>
+        <v>95.83008732188449</v>
       </c>
       <c r="E27" t="n">
         <v>95.83008732188449</v>
       </c>
       <c r="F27" t="n">
-        <v>95.83008732188449</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="G27" t="n">
         <v>7.905982204055472</v>
@@ -6314,7 +6314,7 @@
         <v>103.191063525824</v>
       </c>
       <c r="M27" t="n">
-        <v>201.0275933010105</v>
+        <v>153.3608141234308</v>
       </c>
       <c r="N27" t="n">
         <v>251.1973438986172</v>
@@ -6341,16 +6341,16 @@
         <v>395.2991102027736</v>
       </c>
       <c r="V27" t="n">
-        <v>395.2991102027736</v>
+        <v>295.4761025758106</v>
       </c>
       <c r="W27" t="n">
-        <v>395.2991102027736</v>
+        <v>195.6530949488475</v>
       </c>
       <c r="X27" t="n">
-        <v>295.4761025758106</v>
+        <v>195.6530949488475</v>
       </c>
       <c r="Y27" t="n">
-        <v>295.4761025758106</v>
+        <v>195.6530949488475</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="C28" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="D28" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="E28" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="F28" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="G28" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="H28" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="I28" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="J28" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="K28" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="L28" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="M28" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="N28" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="O28" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="P28" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="Q28" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="R28" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="S28" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="T28" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="U28" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="V28" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="W28" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="X28" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="Y28" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>232.7189536939213</v>
+        <v>53.88929436974223</v>
       </c>
       <c r="C29" t="n">
-        <v>132.8959460669583</v>
+        <v>53.88929436974223</v>
       </c>
       <c r="D29" t="n">
-        <v>33.07293843999524</v>
+        <v>53.88929436974223</v>
       </c>
       <c r="E29" t="n">
-        <v>33.07293843999524</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="F29" t="n">
-        <v>33.07293843999524</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="G29" t="n">
-        <v>33.07293843999524</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="H29" t="n">
-        <v>33.07293843999524</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="I29" t="n">
-        <v>33.07293843999524</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="J29" t="n">
         <v>7.905982204055472</v>
@@ -6487,28 +6487,28 @@
         <v>353.3583172506313</v>
       </c>
       <c r="R29" t="n">
-        <v>332.5419613208844</v>
+        <v>253.5353096236683</v>
       </c>
       <c r="S29" t="n">
-        <v>332.5419613208844</v>
+        <v>253.5353096236683</v>
       </c>
       <c r="T29" t="n">
-        <v>332.5419613208844</v>
+        <v>253.5353096236683</v>
       </c>
       <c r="U29" t="n">
-        <v>332.5419613208844</v>
+        <v>253.5353096236683</v>
       </c>
       <c r="V29" t="n">
-        <v>332.5419613208844</v>
+        <v>253.5353096236683</v>
       </c>
       <c r="W29" t="n">
-        <v>332.5419613208844</v>
+        <v>253.5353096236683</v>
       </c>
       <c r="X29" t="n">
-        <v>332.5419613208844</v>
+        <v>253.5353096236683</v>
       </c>
       <c r="Y29" t="n">
-        <v>332.5419613208844</v>
+        <v>153.7123019967053</v>
       </c>
     </row>
     <row r="30">
@@ -6572,16 +6572,16 @@
         <v>395.2991102027736</v>
       </c>
       <c r="T30" t="n">
-        <v>307.3750050849446</v>
+        <v>395.2991102027736</v>
       </c>
       <c r="U30" t="n">
-        <v>207.5519974579815</v>
+        <v>295.4761025758106</v>
       </c>
       <c r="V30" t="n">
-        <v>107.7289898310185</v>
+        <v>195.6530949488475</v>
       </c>
       <c r="W30" t="n">
-        <v>7.905982204055472</v>
+        <v>95.83008732188449</v>
       </c>
       <c r="X30" t="n">
         <v>7.905982204055472</v>
@@ -6679,13 +6679,13 @@
         <v>177.6047981423853</v>
       </c>
       <c r="C32" t="n">
+        <v>177.6047981423853</v>
+      </c>
+      <c r="D32" t="n">
         <v>107.7289898310185</v>
       </c>
-      <c r="D32" t="n">
-        <v>7.905982204055472</v>
-      </c>
       <c r="E32" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="F32" t="n">
         <v>7.905982204055472</v>
@@ -6724,13 +6724,13 @@
         <v>377.2508133963114</v>
       </c>
       <c r="R32" t="n">
-        <v>277.4278057693484</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="S32" t="n">
-        <v>277.4278057693484</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="T32" t="n">
-        <v>277.4278057693484</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="U32" t="n">
         <v>277.4278057693484</v>
@@ -6742,10 +6742,10 @@
         <v>277.4278057693484</v>
       </c>
       <c r="X32" t="n">
-        <v>277.4278057693484</v>
+        <v>177.6047981423853</v>
       </c>
       <c r="Y32" t="n">
-        <v>277.4278057693484</v>
+        <v>177.6047981423853</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10.40637175342016</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="C33" t="n">
-        <v>10.40637175342016</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="D33" t="n">
-        <v>10.40637175342016</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="E33" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="F33" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="G33" t="n">
         <v>7.905982204055472</v>
@@ -6788,10 +6788,10 @@
         <v>103.191063525824</v>
       </c>
       <c r="M33" t="n">
-        <v>153.3608141234308</v>
+        <v>201.0275933010105</v>
       </c>
       <c r="N33" t="n">
-        <v>251.1973438986172</v>
+        <v>298.864123076197</v>
       </c>
       <c r="O33" t="n">
         <v>341.8641062977653</v>
@@ -6803,28 +6803,28 @@
         <v>395.2991102027736</v>
       </c>
       <c r="R33" t="n">
-        <v>309.8753946343093</v>
+        <v>395.2991102027736</v>
       </c>
       <c r="S33" t="n">
-        <v>210.0523870073462</v>
+        <v>295.4761025758106</v>
       </c>
       <c r="T33" t="n">
-        <v>210.0523870073462</v>
+        <v>195.6530949488475</v>
       </c>
       <c r="U33" t="n">
-        <v>110.2293793803832</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="V33" t="n">
-        <v>110.2293793803832</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="W33" t="n">
-        <v>10.40637175342016</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="X33" t="n">
-        <v>10.40637175342016</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.40637175342016</v>
+        <v>107.7289898310185</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="C34" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="D34" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="E34" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="F34" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="G34" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="H34" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="I34" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="J34" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="K34" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="L34" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="M34" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="N34" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="O34" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="P34" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="Q34" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="R34" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="S34" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="T34" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="U34" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="V34" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="W34" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="X34" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="Y34" t="n">
-        <v>395.2991102027736</v>
+        <v>7.905982204055472</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>183.4578794006467</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="C35" t="n">
-        <v>183.4578794006467</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="D35" t="n">
-        <v>183.4578794006467</v>
+        <v>65.96442437708568</v>
       </c>
       <c r="E35" t="n">
-        <v>183.4578794006467</v>
+        <v>65.96442437708568</v>
       </c>
       <c r="F35" t="n">
-        <v>89.85692052276569</v>
+        <v>65.96442437708568</v>
       </c>
       <c r="G35" t="n">
-        <v>7.413195943128178</v>
+        <v>65.96442437708568</v>
       </c>
       <c r="H35" t="n">
         <v>7.413195943128178</v>
@@ -6958,31 +6958,31 @@
         <v>370.6597971564088</v>
       </c>
       <c r="Q35" t="n">
-        <v>370.6597971564088</v>
+        <v>346.7673010107288</v>
       </c>
       <c r="R35" t="n">
-        <v>370.6597971564088</v>
+        <v>346.7673010107288</v>
       </c>
       <c r="S35" t="n">
-        <v>370.6597971564088</v>
+        <v>346.7673010107288</v>
       </c>
       <c r="T35" t="n">
-        <v>370.6597971564088</v>
+        <v>346.7673010107288</v>
       </c>
       <c r="U35" t="n">
-        <v>277.0588382785278</v>
+        <v>346.7673010107288</v>
       </c>
       <c r="V35" t="n">
-        <v>277.0588382785278</v>
+        <v>346.7673010107288</v>
       </c>
       <c r="W35" t="n">
-        <v>277.0588382785278</v>
+        <v>346.7673010107288</v>
       </c>
       <c r="X35" t="n">
-        <v>277.0588382785278</v>
+        <v>346.7673010107288</v>
       </c>
       <c r="Y35" t="n">
-        <v>183.4578794006467</v>
+        <v>253.1663421328478</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>277.0588382785278</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="C36" t="n">
-        <v>277.0588382785278</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="D36" t="n">
-        <v>277.0588382785278</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="E36" t="n">
-        <v>277.0588382785278</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="F36" t="n">
-        <v>194.6151136988902</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="G36" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="H36" t="n">
         <v>7.413195943128178</v>
@@ -7049,19 +7049,19 @@
         <v>370.6597971564089</v>
       </c>
       <c r="U36" t="n">
-        <v>370.6597971564089</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="V36" t="n">
-        <v>370.6597971564089</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="W36" t="n">
-        <v>277.0588382785278</v>
+        <v>89.85692052276575</v>
       </c>
       <c r="X36" t="n">
-        <v>277.0588382785278</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="Y36" t="n">
-        <v>277.0588382785278</v>
+        <v>7.413195943128178</v>
       </c>
     </row>
     <row r="37">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>194.6151136988902</v>
+        <v>89.85692052276569</v>
       </c>
       <c r="C38" t="n">
-        <v>101.0141548210092</v>
+        <v>89.85692052276569</v>
       </c>
       <c r="D38" t="n">
-        <v>101.0141548210092</v>
+        <v>89.85692052276569</v>
       </c>
       <c r="E38" t="n">
-        <v>101.0141548210092</v>
+        <v>89.85692052276569</v>
       </c>
       <c r="F38" t="n">
-        <v>101.0141548210092</v>
+        <v>89.85692052276569</v>
       </c>
       <c r="G38" t="n">
-        <v>7.413195943128178</v>
+        <v>89.85692052276569</v>
       </c>
       <c r="H38" t="n">
         <v>7.413195943128178</v>
@@ -7198,28 +7198,28 @@
         <v>370.6597971564088</v>
       </c>
       <c r="R38" t="n">
-        <v>370.6597971564088</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="S38" t="n">
-        <v>370.6597971564088</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="T38" t="n">
-        <v>370.6597971564088</v>
+        <v>183.4578794006467</v>
       </c>
       <c r="U38" t="n">
-        <v>370.6597971564088</v>
+        <v>89.85692052276569</v>
       </c>
       <c r="V38" t="n">
-        <v>370.6597971564088</v>
+        <v>89.85692052276569</v>
       </c>
       <c r="W38" t="n">
-        <v>370.6597971564088</v>
+        <v>89.85692052276569</v>
       </c>
       <c r="X38" t="n">
-        <v>370.6597971564088</v>
+        <v>89.85692052276569</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.2160725767713</v>
+        <v>89.85692052276569</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>183.4578794006468</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="C39" t="n">
-        <v>89.85692052276575</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="D39" t="n">
-        <v>89.85692052276575</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="E39" t="n">
-        <v>89.85692052276575</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="F39" t="n">
-        <v>89.85692052276575</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="G39" t="n">
         <v>7.413195943128178</v>
@@ -7256,10 +7256,10 @@
         <v>7.413195943128178</v>
       </c>
       <c r="K39" t="n">
-        <v>7.413195943128178</v>
+        <v>28.29609765201163</v>
       </c>
       <c r="L39" t="n">
-        <v>43.08143125983014</v>
+        <v>102.6982772648967</v>
       </c>
       <c r="M39" t="n">
         <v>134.8197310560413</v>
@@ -7277,28 +7277,28 @@
         <v>370.6597971564089</v>
       </c>
       <c r="R39" t="n">
-        <v>370.6597971564089</v>
+        <v>285.2360815879446</v>
       </c>
       <c r="S39" t="n">
-        <v>370.6597971564089</v>
+        <v>191.6351227100635</v>
       </c>
       <c r="T39" t="n">
-        <v>277.0588382785278</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="U39" t="n">
-        <v>277.0588382785278</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="V39" t="n">
-        <v>277.0588382785278</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="W39" t="n">
-        <v>277.0588382785278</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="X39" t="n">
-        <v>277.0588382785278</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="Y39" t="n">
-        <v>277.0588382785278</v>
+        <v>7.413195943128178</v>
       </c>
     </row>
     <row r="40">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>194.6151136988903</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="C41" t="n">
-        <v>194.6151136988903</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="D41" t="n">
-        <v>194.6151136988903</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="E41" t="n">
-        <v>194.6151136988903</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="F41" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="G41" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="H41" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="I41" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="J41" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="K41" t="n">
-        <v>21.18357364821452</v>
+        <v>21.18357364821441</v>
       </c>
       <c r="L41" t="n">
-        <v>75.16870670940371</v>
+        <v>75.16870670940376</v>
       </c>
       <c r="M41" t="n">
-        <v>166.9070065056149</v>
+        <v>166.907006505615</v>
       </c>
       <c r="N41" t="n">
-        <v>258.6453063018262</v>
+        <v>258.6453063018261</v>
       </c>
       <c r="O41" t="n">
         <v>337.6943058037293</v>
       </c>
       <c r="P41" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q41" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R41" t="n">
-        <v>288.2160725767714</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S41" t="n">
-        <v>288.2160725767714</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T41" t="n">
-        <v>288.2160725767714</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="U41" t="n">
-        <v>288.2160725767714</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="V41" t="n">
-        <v>288.2160725767714</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="W41" t="n">
-        <v>194.6151136988903</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="X41" t="n">
-        <v>194.6151136988903</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="Y41" t="n">
-        <v>194.6151136988903</v>
+        <v>194.6151136988902</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="C42" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="D42" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="E42" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="F42" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="G42" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="H42" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="I42" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="J42" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="K42" t="n">
-        <v>28.29609765201164</v>
+        <v>28.29609765201163</v>
       </c>
       <c r="L42" t="n">
-        <v>43.0814312598302</v>
+        <v>102.6982772648967</v>
       </c>
       <c r="M42" t="n">
-        <v>134.8197310560414</v>
+        <v>134.8197310560413</v>
       </c>
       <c r="N42" t="n">
-        <v>226.5580308522527</v>
+        <v>226.5580308522525</v>
       </c>
       <c r="O42" t="n">
-        <v>317.2247932514007</v>
+        <v>317.2247932514005</v>
       </c>
       <c r="P42" t="n">
-        <v>370.659797156409</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q42" t="n">
-        <v>370.659797156409</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R42" t="n">
-        <v>370.659797156409</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S42" t="n">
-        <v>370.659797156409</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="T42" t="n">
-        <v>288.2160725767714</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="U42" t="n">
-        <v>194.6151136988903</v>
+        <v>89.85692052276573</v>
       </c>
       <c r="V42" t="n">
-        <v>194.6151136988903</v>
+        <v>89.85692052276573</v>
       </c>
       <c r="W42" t="n">
-        <v>194.6151136988903</v>
+        <v>89.85692052276573</v>
       </c>
       <c r="X42" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="Y42" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="C43" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="D43" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="E43" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="F43" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="G43" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="H43" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="I43" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="J43" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="K43" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="L43" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="M43" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="N43" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="O43" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="P43" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="Q43" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="R43" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="S43" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="T43" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="U43" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="V43" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="W43" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="X43" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="Y43" t="n">
-        <v>370.659797156409</v>
+        <v>7.413195943128177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>288.2160725767714</v>
+        <v>89.85692052276573</v>
       </c>
       <c r="C44" t="n">
-        <v>288.2160725767714</v>
+        <v>89.85692052276573</v>
       </c>
       <c r="D44" t="n">
-        <v>288.2160725767714</v>
+        <v>89.85692052276573</v>
       </c>
       <c r="E44" t="n">
-        <v>194.6151136988903</v>
+        <v>89.85692052276573</v>
       </c>
       <c r="F44" t="n">
-        <v>101.0141548210092</v>
+        <v>89.85692052276573</v>
       </c>
       <c r="G44" t="n">
-        <v>7.41319594312818</v>
+        <v>89.85692052276573</v>
       </c>
       <c r="H44" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="I44" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="J44" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="K44" t="n">
-        <v>21.18357364821455</v>
+        <v>21.18357364821452</v>
       </c>
       <c r="L44" t="n">
-        <v>75.16870670940378</v>
+        <v>75.16870670940369</v>
       </c>
       <c r="M44" t="n">
-        <v>166.907006505615</v>
+        <v>166.9070065056149</v>
       </c>
       <c r="N44" t="n">
-        <v>258.6453063018263</v>
+        <v>258.6453063018261</v>
       </c>
       <c r="O44" t="n">
-        <v>337.6943058037294</v>
+        <v>337.6943058037293</v>
       </c>
       <c r="P44" t="n">
-        <v>370.659797156409</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q44" t="n">
-        <v>346.7673010107289</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R44" t="n">
-        <v>346.7673010107289</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S44" t="n">
-        <v>346.7673010107289</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T44" t="n">
-        <v>346.7673010107289</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="U44" t="n">
-        <v>346.7673010107289</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="V44" t="n">
-        <v>346.7673010107289</v>
+        <v>89.85692052276573</v>
       </c>
       <c r="W44" t="n">
-        <v>346.7673010107289</v>
+        <v>89.85692052276573</v>
       </c>
       <c r="X44" t="n">
-        <v>346.7673010107289</v>
+        <v>89.85692052276573</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.2160725767714</v>
+        <v>89.85692052276573</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>89.85692052276583</v>
+        <v>167.3118528170193</v>
       </c>
       <c r="C45" t="n">
-        <v>89.85692052276583</v>
+        <v>167.3118528170193</v>
       </c>
       <c r="D45" t="n">
-        <v>7.41319594312818</v>
+        <v>167.3118528170193</v>
       </c>
       <c r="E45" t="n">
-        <v>7.41319594312818</v>
+        <v>167.3118528170193</v>
       </c>
       <c r="F45" t="n">
-        <v>7.41319594312818</v>
+        <v>167.3118528170193</v>
       </c>
       <c r="G45" t="n">
-        <v>7.41319594312818</v>
+        <v>167.3118528170193</v>
       </c>
       <c r="H45" t="n">
-        <v>7.41319594312818</v>
+        <v>73.71089393913829</v>
       </c>
       <c r="I45" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="J45" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="K45" t="n">
-        <v>28.29609765201164</v>
+        <v>28.29609765201163</v>
       </c>
       <c r="L45" t="n">
         <v>102.6982772648967</v>
       </c>
       <c r="M45" t="n">
-        <v>134.8197310560414</v>
+        <v>134.8197310560413</v>
       </c>
       <c r="N45" t="n">
-        <v>226.5580308522527</v>
+        <v>226.5580308522525</v>
       </c>
       <c r="O45" t="n">
-        <v>317.2247932514007</v>
+        <v>317.2247932514005</v>
       </c>
       <c r="P45" t="n">
-        <v>370.659797156409</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q45" t="n">
-        <v>370.659797156409</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R45" t="n">
-        <v>370.659797156409</v>
+        <v>285.2360815879445</v>
       </c>
       <c r="S45" t="n">
-        <v>370.659797156409</v>
+        <v>285.2360815879445</v>
       </c>
       <c r="T45" t="n">
-        <v>370.659797156409</v>
+        <v>285.2360815879445</v>
       </c>
       <c r="U45" t="n">
-        <v>370.659797156409</v>
+        <v>260.9128116949004</v>
       </c>
       <c r="V45" t="n">
-        <v>370.659797156409</v>
+        <v>260.9128116949004</v>
       </c>
       <c r="W45" t="n">
-        <v>277.058838278528</v>
+        <v>260.9128116949004</v>
       </c>
       <c r="X45" t="n">
-        <v>183.4578794006469</v>
+        <v>260.9128116949004</v>
       </c>
       <c r="Y45" t="n">
-        <v>89.85692052276583</v>
+        <v>260.9128116949004</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="C46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="D46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="E46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="F46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="G46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="H46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="I46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="J46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="K46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="L46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="M46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="N46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="O46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="P46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="R46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="S46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="T46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="U46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="V46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="W46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="X46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.41319594312818</v>
+        <v>7.413195943128177</v>
       </c>
     </row>
   </sheetData>
@@ -22564,37 +22564,37 @@
         <v>414.0326130531137</v>
       </c>
       <c r="H2" t="n">
-        <v>326.4671399690905</v>
+        <v>326.4671399690904</v>
       </c>
       <c r="I2" t="n">
-        <v>161.5094162483257</v>
+        <v>161.5094162483256</v>
       </c>
       <c r="J2" t="n">
-        <v>73.24567846819699</v>
+        <v>73.24567846819687</v>
       </c>
       <c r="K2" t="n">
-        <v>58.52525650912514</v>
+        <v>58.52525650912497</v>
       </c>
       <c r="L2" t="n">
-        <v>35.33124892954424</v>
+        <v>35.33124892954402</v>
       </c>
       <c r="M2" t="n">
-        <v>7.323491285356567</v>
+        <v>7.32349128535634</v>
       </c>
       <c r="N2" t="n">
-        <v>2.781580526956418</v>
+        <v>2.781580526956191</v>
       </c>
       <c r="O2" t="n">
-        <v>16.09652847127759</v>
+        <v>16.09652847127737</v>
       </c>
       <c r="P2" t="n">
-        <v>48.58751046101386</v>
+        <v>48.58751046101366</v>
       </c>
       <c r="Q2" t="n">
-        <v>85.1465368763354</v>
+        <v>85.14653687633526</v>
       </c>
       <c r="R2" t="n">
-        <v>135.80108207668</v>
+        <v>135.8010820766799</v>
       </c>
       <c r="S2" t="n">
         <v>180.0771084079325</v>
@@ -22646,13 +22646,13 @@
         <v>105.6721659462977</v>
       </c>
       <c r="I3" t="n">
-        <v>76.12468037326958</v>
+        <v>76.12468037326956</v>
       </c>
       <c r="J3" t="n">
-        <v>62.63255053171129</v>
+        <v>62.63255053171122</v>
       </c>
       <c r="K3" t="n">
-        <v>28.10473742565406</v>
+        <v>28.10473742565395</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22667,10 +22667,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.205102146994079</v>
+        <v>4.205102146993937</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.23443014508368</v>
+        <v>53.23443014508359</v>
       </c>
       <c r="R3" t="n">
         <v>103.4861490702065</v>
@@ -22728,31 +22728,31 @@
         <v>138.3170164774018</v>
       </c>
       <c r="J4" t="n">
-        <v>86.71521999908968</v>
+        <v>86.71521999908964</v>
       </c>
       <c r="K4" t="n">
-        <v>62.82051361516493</v>
+        <v>62.82051361516484</v>
       </c>
       <c r="L4" t="n">
-        <v>50.18075261468672</v>
+        <v>50.18075261468664</v>
       </c>
       <c r="M4" t="n">
-        <v>49.61737280767916</v>
+        <v>49.61737280767906</v>
       </c>
       <c r="N4" t="n">
-        <v>40.5006877281008</v>
+        <v>40.5006877281007</v>
       </c>
       <c r="O4" t="n">
-        <v>57.92721197712444</v>
+        <v>57.92721197712436</v>
       </c>
       <c r="P4" t="n">
-        <v>68.82125337898734</v>
+        <v>68.82125337898725</v>
       </c>
       <c r="Q4" t="n">
         <v>103.7975391803443</v>
       </c>
       <c r="R4" t="n">
-        <v>151.6760741181036</v>
+        <v>151.6760741181035</v>
       </c>
       <c r="S4" t="n">
         <v>214.0876863536667</v>
@@ -23044,7 +23044,7 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J8" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K8" t="n">
         <v>56.54227989916996</v>
@@ -23053,13 +23053,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M8" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P8" t="n">
         <v>46.34579576917247</v>
@@ -23120,10 +23120,10 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I9" t="n">
-        <v>75.83750674330534</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J9" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K9" t="n">
         <v>26.75787480980772</v>
@@ -23202,7 +23202,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J10" t="n">
-        <v>86.22083756629321</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K10" t="n">
         <v>62.00809140979796</v>
@@ -23217,10 +23217,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O10" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P10" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q10" t="n">
         <v>103.2119976362414</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>272.6079424819054</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>350.1720450814506</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>320.7982251355236</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H11" t="n">
-        <v>227.9704273259875</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I11" t="n">
-        <v>46.89118423444741</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>23.65357118422324</v>
+        <v>23.65357118422327</v>
       </c>
       <c r="R11" t="n">
         <v>100.0310828299331</v>
       </c>
       <c r="S11" t="n">
-        <v>167.1010256612668</v>
+        <v>85.48173832742553</v>
       </c>
       <c r="T11" t="n">
-        <v>215.0431621354273</v>
+        <v>122.3782128463251</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1984878605957</v>
+        <v>158.5335385714936</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23348,19 +23348,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>52.40426310428164</v>
+        <v>63.44992505954265</v>
       </c>
       <c r="G12" t="n">
-        <v>43.69431484884207</v>
+        <v>43.69431484884211</v>
       </c>
       <c r="H12" t="n">
-        <v>10.06468283495373</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J12" t="n">
-        <v>17.86273395737651</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,16 +23381,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>14.3427387906227</v>
+        <v>14.34273879062272</v>
       </c>
       <c r="R12" t="n">
         <v>84.56947841277972</v>
       </c>
       <c r="S12" t="n">
-        <v>153.4011028494393</v>
+        <v>60.73615356033713</v>
       </c>
       <c r="T12" t="n">
-        <v>196.197498299121</v>
+        <v>103.5325490100188</v>
       </c>
       <c r="U12" t="n">
         <v>225.8766285924705</v>
@@ -23439,28 +23439,28 @@
         <v>130.6355227555885</v>
       </c>
       <c r="J13" t="n">
-        <v>68.65627904547948</v>
+        <v>68.65627904547949</v>
       </c>
       <c r="K13" t="n">
-        <v>33.14412614092828</v>
+        <v>33.14412614092829</v>
       </c>
       <c r="L13" t="n">
-        <v>12.20519387026839</v>
+        <v>12.2051938702684</v>
       </c>
       <c r="M13" t="n">
-        <v>9.577470677924651</v>
+        <v>9.57747067792468</v>
       </c>
       <c r="N13" t="n">
-        <v>1.412844977410202</v>
+        <v>1.412844977410217</v>
       </c>
       <c r="O13" t="n">
-        <v>21.823262646183</v>
+        <v>21.82326264618301</v>
       </c>
       <c r="P13" t="n">
-        <v>37.92808757638606</v>
+        <v>37.92808757638608</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.40871249605685</v>
+        <v>82.40871249605686</v>
       </c>
       <c r="R13" t="n">
         <v>140.1909870721275</v>
@@ -23506,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>350.1720450814506</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>320.7982251355236</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H14" t="n">
-        <v>227.9704273259875</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I14" t="n">
-        <v>46.89118423444745</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>167.1010256612668</v>
       </c>
       <c r="T14" t="n">
-        <v>215.0431621354273</v>
+        <v>122.3782128463251</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1984878605957</v>
+        <v>158.5335385714936</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>235.0873091810327</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>267.6216813835718</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23582,22 +23582,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>64.98013116629875</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>43.69431484884211</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H15" t="n">
-        <v>10.06468283495377</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J15" t="n">
-        <v>17.86273395737652</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23630,16 +23630,16 @@
         <v>196.197498299121</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8766285924705</v>
+        <v>133.2116793033683</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>140.1356378603231</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>170.0756958270784</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>113.1080359143753</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>272.6079424819054</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>314.2110964526092</v>
       </c>
       <c r="G17" t="n">
         <v>413.4631744246258</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>18.41179549609184</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S17" t="n">
         <v>74.43607637216456</v>
       </c>
       <c r="T17" t="n">
-        <v>122.3782128463251</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U17" t="n">
-        <v>158.5335385714936</v>
+        <v>193.2327717109778</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>73.86823436076514</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>91.08921165447451</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23861,16 +23861,16 @@
         <v>84.56947841277972</v>
       </c>
       <c r="S18" t="n">
-        <v>60.73615356033713</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T18" t="n">
         <v>103.5325490100188</v>
       </c>
       <c r="U18" t="n">
-        <v>133.2116793033683</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V18" t="n">
-        <v>151.1812998155841</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23879,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>113.0177464882022</v>
       </c>
     </row>
     <row r="19">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>290.0688923743784</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>272.6079424819053</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23983,16 +23983,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>356.759173764365</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H20" t="n">
-        <v>227.9704273259875</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I20" t="n">
-        <v>46.89118423444745</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>167.1010256612668</v>
       </c>
       <c r="T20" t="n">
-        <v>122.3782128463251</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U20" t="n">
         <v>251.1984878605957</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>288.1118133446279</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>293.5729893669513</v>
       </c>
     </row>
     <row r="21">
@@ -24098,19 +24098,19 @@
         <v>2.950191078938488</v>
       </c>
       <c r="S21" t="n">
-        <v>60.73615356033713</v>
+        <v>60.7361535603371</v>
       </c>
       <c r="T21" t="n">
-        <v>103.5325490100188</v>
+        <v>103.5325490100187</v>
       </c>
       <c r="U21" t="n">
-        <v>133.2116793033683</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>159.0300338718174</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24217,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>308.051268191018</v>
       </c>
       <c r="G23" t="n">
-        <v>413.4631744246258</v>
+        <v>314.6383968739324</v>
       </c>
       <c r="H23" t="n">
         <v>320.6353766150897</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.206305279239672</v>
+        <v>54.50760378590319</v>
       </c>
       <c r="S23" t="n">
-        <v>121.5775466172369</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T23" t="n">
         <v>215.0431621354273</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>287.4131611053602</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24290,19 +24290,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>48.62028801394536</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>142.5938267395128</v>
+        <v>46.24443484269048</v>
       </c>
       <c r="G24" t="n">
         <v>37.53448658725091</v>
       </c>
       <c r="H24" t="n">
-        <v>3.90485457336257</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I24" t="n">
         <v>65.63472101605001</v>
@@ -24332,10 +24332,10 @@
         <v>14.3427387906227</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S24" t="n">
-        <v>54.57632529874593</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T24" t="n">
         <v>196.197498299121</v>
@@ -24347,7 +24347,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>164.6501190942689</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24454,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>308.051268191018</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.4631744246258</v>
@@ -24463,10 +24463,10 @@
         <v>320.6353766150897</v>
       </c>
       <c r="I26" t="n">
-        <v>95.29436996887685</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>251.1984878605957</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>258.5752082418817</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>250.4161911667196</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>270.9063231277756</v>
       </c>
       <c r="Y26" t="n">
-        <v>287.4131611053602</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>67.70840609917394</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>48.62028801394536</v>
       </c>
       <c r="E27" t="n">
-        <v>58.82030290470755</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>58.02434832673316</v>
       </c>
       <c r="G27" t="n">
-        <v>49.31440007129359</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H27" t="n">
         <v>102.729632124056</v>
@@ -24581,13 +24581,13 @@
         <v>225.8766285924705</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>133.9758095987319</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>152.8702056102262</v>
       </c>
       <c r="X27" t="n">
-        <v>106.9482076527841</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24682,13 +24682,13 @@
         <v>283.9090641127872</v>
       </c>
       <c r="C29" t="n">
-        <v>266.4481142203142</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>255.8582640699896</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>336.4068910282319</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24703,7 +24703,7 @@
         <v>139.5561335235496</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>79.42289045948357</v>
+        <v>1.206305279239672</v>
       </c>
       <c r="S29" t="n">
         <v>167.1010256612668</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>287.4131611053602</v>
       </c>
     </row>
     <row r="30">
@@ -24812,7 +24812,7 @@
         <v>153.4011028494393</v>
       </c>
       <c r="T30" t="n">
-        <v>109.1526342324702</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U30" t="n">
         <v>127.0518510417771</v>
@@ -24824,7 +24824,7 @@
         <v>152.8702056102262</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>118.7281211368268</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>283.9090641127872</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>296.0958415427544</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>255.8582640699896</v>
+        <v>285.5059913924298</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>308.051268191018</v>
       </c>
       <c r="G32" t="n">
         <v>413.4631744246258</v>
@@ -24964,7 +24964,7 @@
         <v>23.65357118422324</v>
       </c>
       <c r="R32" t="n">
-        <v>1.206305279239672</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S32" t="n">
         <v>167.1010256612668</v>
@@ -24973,7 +24973,7 @@
         <v>215.0431621354273</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1984878605957</v>
+        <v>152.3737103099023</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>270.9063231277756</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25004,13 +25004,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>155.1696948015299</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.3592641379443</v>
+        <v>37.53448658725091</v>
       </c>
       <c r="H33" t="n">
         <v>102.729632124056</v>
@@ -25043,22 +25043,22 @@
         <v>14.3427387906227</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S33" t="n">
         <v>54.57632529874593</v>
       </c>
       <c r="T33" t="n">
-        <v>196.197498299121</v>
+        <v>97.37272074842755</v>
       </c>
       <c r="U33" t="n">
-        <v>127.0518510417771</v>
+        <v>138.8317645258198</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>152.8702056102262</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>290.0688923743784</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>262.0180923315808</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>314.2110964526092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>331.8438870907847</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H35" t="n">
-        <v>320.6353766150897</v>
+        <v>262.6696604654718</v>
       </c>
       <c r="I35" t="n">
         <v>139.5561335235496</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>100.0310828299331</v>
@@ -25210,7 +25210,7 @@
         <v>215.0431621354273</v>
       </c>
       <c r="U35" t="n">
-        <v>158.5335385714935</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25244,13 +25244,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>63.44992505954265</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>43.69431484884208</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H36" t="n">
-        <v>10.06468283495374</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I36" t="n">
         <v>65.63472101605001</v>
@@ -25289,16 +25289,16 @@
         <v>196.197498299121</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8766285924705</v>
+        <v>133.2116793033682</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>140.135637860323</v>
       </c>
       <c r="W36" t="n">
         <v>159.0300338718174</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>124.1536978696363</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>290.0688923743784</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>272.6079424819053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25405,10 +25405,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>320.7982251355236</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H38" t="n">
-        <v>320.6353766150897</v>
+        <v>239.0160892812486</v>
       </c>
       <c r="I38" t="n">
         <v>139.5561335235496</v>
@@ -25438,16 +25438,16 @@
         <v>23.65357118422324</v>
       </c>
       <c r="R38" t="n">
-        <v>100.0310828299331</v>
+        <v>7.366133540830845</v>
       </c>
       <c r="S38" t="n">
         <v>167.1010256612668</v>
       </c>
       <c r="T38" t="n">
-        <v>215.0431621354273</v>
+        <v>122.3782128463251</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1984878605957</v>
+        <v>158.5335385714935</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>304.6186513222124</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>73.86823436076511</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>80.04354969921351</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25484,7 +25484,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>54.73997680410311</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H39" t="n">
         <v>102.729632124056</v>
@@ -25517,19 +25517,19 @@
         <v>14.3427387906227</v>
       </c>
       <c r="R39" t="n">
-        <v>84.56947841277972</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>153.4011028494393</v>
+        <v>60.7361535603371</v>
       </c>
       <c r="T39" t="n">
-        <v>103.5325490100187</v>
+        <v>106.4827400889572</v>
       </c>
       <c r="U39" t="n">
         <v>225.8766285924705</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>140.135637860323</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25630,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>272.6079424819054</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25642,7 +25642,7 @@
         <v>314.2110964526092</v>
       </c>
       <c r="G41" t="n">
-        <v>320.7982251355236</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H41" t="n">
         <v>320.6353766150897</v>
@@ -25675,22 +25675,22 @@
         <v>23.65357118422324</v>
       </c>
       <c r="R41" t="n">
-        <v>18.4117954960919</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S41" t="n">
         <v>167.1010256612668</v>
       </c>
       <c r="T41" t="n">
-        <v>215.0431621354273</v>
+        <v>122.3782128463251</v>
       </c>
       <c r="U41" t="n">
         <v>251.1984878605957</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>246.1329711362937</v>
       </c>
       <c r="W41" t="n">
-        <v>256.5760194283108</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25724,7 +25724,7 @@
         <v>136.3592641379443</v>
       </c>
       <c r="H42" t="n">
-        <v>10.06468283495371</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I42" t="n">
         <v>65.63472101605001</v>
@@ -25757,13 +25757,13 @@
         <v>84.56947841277972</v>
       </c>
       <c r="S42" t="n">
-        <v>153.4011028494393</v>
+        <v>60.73615356033712</v>
       </c>
       <c r="T42" t="n">
-        <v>114.5782109652797</v>
+        <v>103.5325490100187</v>
       </c>
       <c r="U42" t="n">
-        <v>133.2116793033682</v>
+        <v>133.2116793033683</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25772,7 +25772,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>113.1080359143752</v>
+        <v>124.1536978696363</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25873,16 +25873,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>289.2654207831595</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>314.2110964526092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>320.7982251355236</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H44" t="n">
-        <v>320.6353766150897</v>
+        <v>239.0160892812486</v>
       </c>
       <c r="I44" t="n">
         <v>139.5561335235496</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R44" t="n">
         <v>100.0310828299331</v>
@@ -25918,13 +25918,13 @@
         <v>167.1010256612668</v>
       </c>
       <c r="T44" t="n">
-        <v>215.0431621354273</v>
+        <v>122.3782128463251</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1984878605957</v>
+        <v>158.5335385714935</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>235.0873091810327</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>328.2722225064356</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>73.86823436076513</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>65.82577823079747</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25961,10 +25961,10 @@
         <v>136.3592641379443</v>
       </c>
       <c r="H45" t="n">
-        <v>102.729632124056</v>
+        <v>10.06468283495376</v>
       </c>
       <c r="I45" t="n">
-        <v>65.63472101605001</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>33.84730027516773</v>
@@ -25991,7 +25991,7 @@
         <v>14.3427387906227</v>
       </c>
       <c r="R45" t="n">
-        <v>84.56947841277972</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>153.4011028494393</v>
@@ -26000,19 +26000,19 @@
         <v>196.197498299121</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8766285924705</v>
+        <v>201.7965913983568</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>159.0300338718174</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>113.1080359143752</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>113.0177464882021</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>231091.8378446237</v>
+        <v>231091.8378446239</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>335249.3307048348</v>
+        <v>335249.3307048347</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>337079.6516212555</v>
+        <v>337079.6516212554</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>337079.6516212554</v>
+        <v>337079.6516212555</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>335249.3307048348</v>
+        <v>335249.3307048347</v>
       </c>
     </row>
     <row r="14">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99039.35907626725</v>
+        <v>99039.35907626733</v>
       </c>
       <c r="C2" t="n">
         <v>100103.397503056</v>
@@ -26331,28 +26331,28 @@
         <v>143678.2845877863</v>
       </c>
       <c r="H2" t="n">
-        <v>143678.2845877862</v>
+        <v>143678.2845877863</v>
       </c>
       <c r="I2" t="n">
-        <v>144462.7078376808</v>
+        <v>144462.7078376807</v>
       </c>
       <c r="J2" t="n">
         <v>144462.7078376808</v>
       </c>
       <c r="K2" t="n">
-        <v>144462.7078376807</v>
+        <v>144462.7078376808</v>
       </c>
       <c r="L2" t="n">
         <v>144462.7078376808</v>
       </c>
       <c r="M2" t="n">
-        <v>143678.2845877863</v>
+        <v>143678.2845877862</v>
       </c>
       <c r="N2" t="n">
         <v>143678.2845877863</v>
       </c>
       <c r="O2" t="n">
-        <v>143678.2845877862</v>
+        <v>143678.2845877863</v>
       </c>
       <c r="P2" t="n">
         <v>143678.2845877863</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>304447.2252514309</v>
+        <v>304447.2252514313</v>
       </c>
       <c r="C3" t="n">
-        <v>3531.094709557607</v>
+        <v>3531.094709557314</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>138352.6270929455</v>
+        <v>138352.6270929454</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1638.027691150594</v>
+        <v>1638.027691150586</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>21557.42218053987</v>
+        <v>21557.42218053986</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>67.14558386063673</v>
+        <v>67.14558386063669</v>
       </c>
       <c r="F4" t="n">
         <v>67.14558386063672</v>
@@ -26456,10 +26456,10 @@
         <v>67.14558386063672</v>
       </c>
       <c r="O4" t="n">
-        <v>67.14558386063673</v>
+        <v>67.14558386063672</v>
       </c>
       <c r="P4" t="n">
-        <v>67.14558386063673</v>
+        <v>67.14558386063672</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40515.16742642657</v>
+        <v>40515.16742642658</v>
       </c>
       <c r="C5" t="n">
         <v>40599.70256325733</v>
@@ -26478,7 +26478,7 @@
         <v>40599.70256325733</v>
       </c>
       <c r="E5" t="n">
-        <v>15609.51966583623</v>
+        <v>15609.51966583622</v>
       </c>
       <c r="F5" t="n">
         <v>15609.51966583622</v>
@@ -26508,10 +26508,10 @@
         <v>15609.51966583622</v>
       </c>
       <c r="O5" t="n">
-        <v>15609.51966583623</v>
+        <v>15609.51966583622</v>
       </c>
       <c r="P5" t="n">
-        <v>15609.51966583623</v>
+        <v>15609.51966583622</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-245923.0336015903</v>
+        <v>-261732.9178921849</v>
       </c>
       <c r="C6" t="n">
-        <v>55972.60023024103</v>
+        <v>40213.38443616074</v>
       </c>
       <c r="D6" t="n">
-        <v>59503.69493979862</v>
+        <v>43744.47914571803</v>
       </c>
       <c r="E6" t="n">
-        <v>-10351.0077548561</v>
+        <v>-24035.22892585425</v>
       </c>
       <c r="F6" t="n">
-        <v>128001.6193380894</v>
+        <v>114317.3981670912</v>
       </c>
       <c r="G6" t="n">
-        <v>128001.6193380894</v>
+        <v>114317.3981670912</v>
       </c>
       <c r="H6" t="n">
-        <v>128001.6193380894</v>
+        <v>114317.3981670912</v>
       </c>
       <c r="I6" t="n">
-        <v>126771.2106236164</v>
+        <v>113124.3429407084</v>
       </c>
       <c r="J6" t="n">
-        <v>128409.238314767</v>
+        <v>114762.370631859</v>
       </c>
       <c r="K6" t="n">
-        <v>128409.2383147669</v>
+        <v>114762.370631859</v>
       </c>
       <c r="L6" t="n">
-        <v>128409.238314767</v>
+        <v>114762.370631859</v>
       </c>
       <c r="M6" t="n">
-        <v>106444.1971575495</v>
+        <v>92759.97598655132</v>
       </c>
       <c r="N6" t="n">
-        <v>128001.6193380894</v>
+        <v>114317.3981670912</v>
       </c>
       <c r="O6" t="n">
-        <v>128001.6193380894</v>
+        <v>114317.3981670912</v>
       </c>
       <c r="P6" t="n">
-        <v>128001.6193380894</v>
+        <v>114317.3981670912</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>315.9434599278247</v>
+        <v>315.943459927825</v>
       </c>
       <c r="C3" t="n">
         <v>319.8212184980426</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>92.66494928910224</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="F4" t="n">
         <v>92.6649492891022</v>
@@ -26807,7 +26807,7 @@
         <v>92.6649492891022</v>
       </c>
       <c r="H4" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="I4" t="n">
         <v>98.8247775506934</v>
@@ -26828,10 +26828,10 @@
         <v>92.66494928910222</v>
       </c>
       <c r="O4" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910221</v>
       </c>
       <c r="P4" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910221</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>315.9434599278247</v>
+        <v>315.943459927825</v>
       </c>
       <c r="C3" t="n">
-        <v>3.877758570217951</v>
+        <v>3.87775857021763</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>137.7701002661229</v>
+        <v>137.7701002661228</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>92.66494928910224</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6.159828261591201</v>
+        <v>6.159828261591173</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>86.50512102751107</v>
+        <v>86.50512102751102</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.66494928910224</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.270124462021405</v>
+        <v>1.270124462021406</v>
       </c>
       <c r="H2" t="n">
-        <v>13.00766214667672</v>
+        <v>13.00766214667673</v>
       </c>
       <c r="I2" t="n">
-        <v>48.96647332208025</v>
+        <v>48.9664733220803</v>
       </c>
       <c r="J2" t="n">
-        <v>107.8002260584893</v>
+        <v>107.8002260584894</v>
       </c>
       <c r="K2" t="n">
-        <v>161.5645945358554</v>
+        <v>161.5645945358556</v>
       </c>
       <c r="L2" t="n">
-        <v>200.435166040443</v>
+        <v>200.4351660404432</v>
       </c>
       <c r="M2" t="n">
-        <v>223.0227419419162</v>
+        <v>223.0227419419164</v>
       </c>
       <c r="N2" t="n">
-        <v>226.6314830696345</v>
+        <v>226.6314830696347</v>
       </c>
       <c r="O2" t="n">
-        <v>214.0016829504091</v>
+        <v>214.0016829504094</v>
       </c>
       <c r="P2" t="n">
-        <v>182.6454852942557</v>
+        <v>182.6454852942559</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.1591529981141</v>
+        <v>137.1591529981142</v>
       </c>
       <c r="R2" t="n">
-        <v>79.78445573745213</v>
+        <v>79.78445573745222</v>
       </c>
       <c r="S2" t="n">
-        <v>28.94296117831279</v>
+        <v>28.94296117831282</v>
       </c>
       <c r="T2" t="n">
-        <v>5.559969832498703</v>
+        <v>5.559969832498708</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1016099569617124</v>
+        <v>0.1016099569617125</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6795764987126796</v>
+        <v>0.6795764987126802</v>
       </c>
       <c r="H3" t="n">
-        <v>6.563278290198774</v>
+        <v>6.563278290198781</v>
       </c>
       <c r="I3" t="n">
-        <v>23.39769962673041</v>
+        <v>23.39769962673044</v>
       </c>
       <c r="J3" t="n">
-        <v>64.20507613495541</v>
+        <v>64.20507613495548</v>
       </c>
       <c r="K3" t="n">
-        <v>109.7367015487049</v>
+        <v>109.736701548705</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -31147,22 +31147,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>129.7693052673362</v>
+        <v>129.7693052673363</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.74734394093784</v>
+        <v>86.74734394093792</v>
       </c>
       <c r="R3" t="n">
-        <v>42.19335489375743</v>
+        <v>42.19335489375748</v>
       </c>
       <c r="S3" t="n">
-        <v>12.62283540372016</v>
+        <v>12.62283540372017</v>
       </c>
       <c r="T3" t="n">
-        <v>2.739170185600668</v>
+        <v>2.73917018560067</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04470898017846577</v>
+        <v>0.04470898017846582</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.569734108066569</v>
+        <v>0.5697341080665697</v>
       </c>
       <c r="H4" t="n">
-        <v>5.065454160810044</v>
+        <v>5.065454160810051</v>
       </c>
       <c r="I4" t="n">
-        <v>17.13345844985646</v>
+        <v>17.13345844985648</v>
       </c>
       <c r="J4" t="n">
-        <v>40.28020144030643</v>
+        <v>40.28020144030647</v>
       </c>
       <c r="K4" t="n">
-        <v>66.19274455537045</v>
+        <v>66.19274455537054</v>
       </c>
       <c r="L4" t="n">
-        <v>84.70392366655156</v>
+        <v>84.70392366655165</v>
       </c>
       <c r="M4" t="n">
-        <v>89.30841113992589</v>
+        <v>89.30841113992599</v>
       </c>
       <c r="N4" t="n">
-        <v>87.18485673713239</v>
+        <v>87.18485673713249</v>
       </c>
       <c r="O4" t="n">
-        <v>80.52932647471835</v>
+        <v>80.52932647471843</v>
       </c>
       <c r="P4" t="n">
-        <v>68.90675067016028</v>
+        <v>68.90675067016036</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.70746244910153</v>
+        <v>47.70746244910158</v>
       </c>
       <c r="R4" t="n">
-        <v>25.61731725906591</v>
+        <v>25.61731725906593</v>
       </c>
       <c r="S4" t="n">
-        <v>9.928911683305568</v>
+        <v>9.928911683305579</v>
       </c>
       <c r="T4" t="n">
-        <v>2.434318461738976</v>
+        <v>2.434318461738979</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03107640589454017</v>
+        <v>0.0310764058945402</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31524,7 +31524,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J8" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K8" t="n">
         <v>163.5475711458106</v>
@@ -31548,13 +31548,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R8" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S8" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T8" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U8" t="n">
         <v>0.1028570752958528</v>
@@ -31603,7 +31603,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J9" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K9" t="n">
         <v>111.0835641645513</v>
@@ -31633,7 +31633,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T9" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U9" t="n">
         <v>0.04525771959877963</v>
@@ -31676,13 +31676,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H10" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I10" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J10" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K10" t="n">
         <v>67.00516676073742</v>
@@ -31697,10 +31697,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O10" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P10" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q10" t="n">
         <v>48.29300399320443</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.839563090509207</v>
+        <v>1.839563090509206</v>
       </c>
       <c r="H11" t="n">
-        <v>18.83942550067742</v>
+        <v>18.83942550067741</v>
       </c>
       <c r="I11" t="n">
-        <v>70.91975604685626</v>
+        <v>70.91975604685625</v>
       </c>
       <c r="J11" t="n">
         <v>156.1306178531059</v>
@@ -31770,22 +31770,22 @@
         <v>290.2968524055319</v>
       </c>
       <c r="M11" t="n">
-        <v>323.011182516375</v>
+        <v>323.0111825163749</v>
       </c>
       <c r="N11" t="n">
-        <v>322.0780128856932</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O11" t="n">
         <v>309.9456856660333</v>
       </c>
       <c r="P11" t="n">
-        <v>264.5314718690873</v>
+        <v>264.5314718690872</v>
       </c>
       <c r="Q11" t="n">
         <v>198.6521186902262</v>
       </c>
       <c r="R11" t="n">
-        <v>115.5544549841991</v>
+        <v>115.554454984199</v>
       </c>
       <c r="S11" t="n">
         <v>41.91904392497859</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9842530252663183</v>
+        <v>0.9842530252663182</v>
       </c>
       <c r="H12" t="n">
-        <v>9.505812112440497</v>
+        <v>9.505812112440495</v>
       </c>
       <c r="I12" t="n">
         <v>33.88765898395</v>
@@ -31849,7 +31849,7 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M12" t="n">
-        <v>234.7989832111206</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N12" t="n">
         <v>224.0066613724355</v>
@@ -31873,7 +31873,7 @@
         <v>3.967230395700641</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06475348850436308</v>
+        <v>0.06475348850436306</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8251646731812819</v>
+        <v>0.8251646731812818</v>
       </c>
       <c r="H13" t="n">
-        <v>7.336464094284494</v>
+        <v>7.336464094284493</v>
       </c>
       <c r="I13" t="n">
         <v>24.81495217166983</v>
       </c>
       <c r="J13" t="n">
-        <v>58.33914239391663</v>
+        <v>58.33914239391662</v>
       </c>
       <c r="K13" t="n">
-        <v>95.8691320296071</v>
+        <v>95.86913202960709</v>
       </c>
       <c r="L13" t="n">
         <v>122.6794824109699</v>
@@ -31937,19 +31937,19 @@
         <v>116.6332758056598</v>
       </c>
       <c r="P13" t="n">
-        <v>99.79991647276155</v>
+        <v>99.79991647276154</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.09628913338899</v>
+        <v>69.09628913338898</v>
       </c>
       <c r="R13" t="n">
-        <v>37.102404305042</v>
+        <v>37.10240430504199</v>
       </c>
       <c r="S13" t="n">
         <v>14.38036980444106</v>
       </c>
       <c r="T13" t="n">
-        <v>3.52570360359275</v>
+        <v>3.525703603592749</v>
       </c>
       <c r="U13" t="n">
         <v>0.04500898217352452</v>
@@ -32007,7 +32007,7 @@
         <v>290.2968524055319</v>
       </c>
       <c r="M14" t="n">
-        <v>323.011182516375</v>
+        <v>323.0111825163749</v>
       </c>
       <c r="N14" t="n">
         <v>322.0780128856931</v>
@@ -32080,7 +32080,7 @@
         <v>92.99032639149897</v>
       </c>
       <c r="K15" t="n">
-        <v>158.9352790843423</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>213.7080965605662</v>
@@ -32089,10 +32089,10 @@
         <v>234.7989832111205</v>
       </c>
       <c r="N15" t="n">
-        <v>224.0066613724355</v>
+        <v>184.8814651136646</v>
       </c>
       <c r="O15" t="n">
-        <v>173.959796357658</v>
+        <v>234.1788327264121</v>
       </c>
       <c r="P15" t="n">
         <v>187.9491588335306</v>
@@ -32244,7 +32244,7 @@
         <v>290.2968524055319</v>
       </c>
       <c r="M17" t="n">
-        <v>323.0111825163749</v>
+        <v>323.011182516375</v>
       </c>
       <c r="N17" t="n">
         <v>322.0780128856931</v>
@@ -32317,13 +32317,13 @@
         <v>92.99032639149897</v>
       </c>
       <c r="K18" t="n">
-        <v>158.9352790843423</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>153.489060191812</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M18" t="n">
-        <v>234.7989832111205</v>
+        <v>195.6737869523496</v>
       </c>
       <c r="N18" t="n">
         <v>224.0066613724355</v>
@@ -32481,10 +32481,10 @@
         <v>290.2968524055319</v>
       </c>
       <c r="M20" t="n">
-        <v>323.0111825163749</v>
+        <v>323.011182516375</v>
       </c>
       <c r="N20" t="n">
-        <v>322.0780128856931</v>
+        <v>322.0780128856932</v>
       </c>
       <c r="O20" t="n">
         <v>309.9456856660333</v>
@@ -32557,10 +32557,10 @@
         <v>158.9352790843423</v>
       </c>
       <c r="L21" t="n">
-        <v>153.489060191812</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M21" t="n">
-        <v>234.7989832111205</v>
+        <v>174.5799468423664</v>
       </c>
       <c r="N21" t="n">
         <v>224.0066613724355</v>
@@ -33034,10 +33034,10 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M27" t="n">
-        <v>240.9588114727117</v>
+        <v>192.8105496771767</v>
       </c>
       <c r="N27" t="n">
-        <v>182.0182278384917</v>
+        <v>230.1664896340267</v>
       </c>
       <c r="O27" t="n">
         <v>234.1788327264121</v>
@@ -33508,13 +33508,13 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M33" t="n">
-        <v>192.8105496771767</v>
+        <v>240.9588114727117</v>
       </c>
       <c r="N33" t="n">
         <v>230.1664896340267</v>
       </c>
       <c r="O33" t="n">
-        <v>234.1788327264121</v>
+        <v>186.030570930877</v>
       </c>
       <c r="P33" t="n">
         <v>187.9491588335306</v>
@@ -33976,13 +33976,13 @@
         <v>92.99032639149897</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>158.9352790843423</v>
       </c>
       <c r="L39" t="n">
-        <v>174.5829003017953</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M39" t="n">
-        <v>234.7989832111205</v>
+        <v>174.5799468423664</v>
       </c>
       <c r="N39" t="n">
         <v>224.0066613724355</v>
@@ -34143,7 +34143,7 @@
         <v>323.011182516375</v>
       </c>
       <c r="N41" t="n">
-        <v>322.0780128856932</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O41" t="n">
         <v>309.9456856660333</v>
@@ -34216,13 +34216,13 @@
         <v>158.9352790843423</v>
       </c>
       <c r="L42" t="n">
-        <v>153.4890601918121</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M42" t="n">
-        <v>234.7989832111206</v>
+        <v>174.5799468423664</v>
       </c>
       <c r="N42" t="n">
-        <v>224.0066613724356</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O42" t="n">
         <v>234.1788327264121</v>
@@ -34380,7 +34380,7 @@
         <v>323.011182516375</v>
       </c>
       <c r="N44" t="n">
-        <v>322.0780128856932</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O44" t="n">
         <v>309.9456856660333</v>
@@ -34456,10 +34456,10 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M45" t="n">
-        <v>174.5799468423665</v>
+        <v>174.5799468423664</v>
       </c>
       <c r="N45" t="n">
-        <v>224.0066613724356</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O45" t="n">
         <v>234.1788327264121</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>13.90947242938014</v>
+        <v>13.90947242938012</v>
       </c>
       <c r="L11" t="n">
         <v>54.53043743554463</v>
       </c>
       <c r="M11" t="n">
-        <v>92.66494928910224</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N11" t="n">
-        <v>92.66494928910224</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O11" t="n">
-        <v>79.84747424434661</v>
+        <v>79.84747424434656</v>
       </c>
       <c r="P11" t="n">
-        <v>33.29847611381774</v>
+        <v>33.29847611381769</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>75.15371678069201</v>
+        <v>75.15371678069198</v>
       </c>
       <c r="M12" t="n">
-        <v>92.66494928910224</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N12" t="n">
-        <v>92.66494928910224</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O12" t="n">
-        <v>52.45739202319689</v>
+        <v>52.45739202319682</v>
       </c>
       <c r="P12" t="n">
         <v>53.97475141920032</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>21.09384010998329</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>75.15371678069201</v>
@@ -35737,10 +35737,10 @@
         <v>92.6649492891022</v>
       </c>
       <c r="N15" t="n">
-        <v>92.6649492891022</v>
+        <v>53.53975303033131</v>
       </c>
       <c r="O15" t="n">
-        <v>31.36355191321351</v>
+        <v>91.5825882819677</v>
       </c>
       <c r="P15" t="n">
         <v>53.97475141920032</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>21.09384010998329</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>14.93468041193783</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M18" t="n">
-        <v>92.6649492891022</v>
+        <v>53.53975303033131</v>
       </c>
       <c r="N18" t="n">
         <v>92.6649492891022</v>
@@ -36129,10 +36129,10 @@
         <v>54.53043743554463</v>
       </c>
       <c r="M20" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="N20" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="O20" t="n">
         <v>79.84747424434661</v>
@@ -36205,13 +36205,13 @@
         <v>21.09384010998329</v>
       </c>
       <c r="L21" t="n">
-        <v>14.93468041193783</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M21" t="n">
-        <v>92.6649492891022</v>
+        <v>32.44591292034811</v>
       </c>
       <c r="N21" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="O21" t="n">
         <v>91.5825882819677</v>
@@ -36682,10 +36682,10 @@
         <v>75.15371678069201</v>
       </c>
       <c r="M27" t="n">
+        <v>50.67651575515833</v>
+      </c>
+      <c r="N27" t="n">
         <v>98.8247775506934</v>
-      </c>
-      <c r="N27" t="n">
-        <v>50.67651575515835</v>
       </c>
       <c r="O27" t="n">
         <v>91.5825882819677</v>
@@ -37156,13 +37156,13 @@
         <v>75.15371678069201</v>
       </c>
       <c r="M33" t="n">
-        <v>50.67651575515833</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="N33" t="n">
         <v>98.8247775506934</v>
       </c>
       <c r="O33" t="n">
-        <v>91.5825882819677</v>
+        <v>43.43432648643262</v>
       </c>
       <c r="P33" t="n">
         <v>53.97475141920032</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L39" t="n">
-        <v>36.02852052192117</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M39" t="n">
-        <v>92.66494928910222</v>
+        <v>32.44591292034811</v>
       </c>
       <c r="N39" t="n">
         <v>92.66494928910222</v>
@@ -37788,10 +37788,10 @@
         <v>54.53043743554463</v>
       </c>
       <c r="M41" t="n">
-        <v>92.66494928910222</v>
+        <v>92.66494928910221</v>
       </c>
       <c r="N41" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910221</v>
       </c>
       <c r="O41" t="n">
         <v>79.84747424434661</v>
@@ -37864,13 +37864,13 @@
         <v>21.09384010998329</v>
       </c>
       <c r="L42" t="n">
-        <v>14.93468041193794</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M42" t="n">
-        <v>92.66494928910225</v>
+        <v>32.44591292034806</v>
       </c>
       <c r="N42" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910221</v>
       </c>
       <c r="O42" t="n">
         <v>91.5825882819677</v>
@@ -38025,10 +38025,10 @@
         <v>54.53043743554463</v>
       </c>
       <c r="M44" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910221</v>
       </c>
       <c r="N44" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910221</v>
       </c>
       <c r="O44" t="n">
         <v>79.84747424434661</v>
@@ -38104,10 +38104,10 @@
         <v>75.15371678069201</v>
       </c>
       <c r="M45" t="n">
-        <v>32.44591292034819</v>
+        <v>32.44591292034806</v>
       </c>
       <c r="N45" t="n">
-        <v>92.66494928910225</v>
+        <v>92.66494928910221</v>
       </c>
       <c r="O45" t="n">
         <v>91.5825882819677</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_23_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_23_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376779.5616164837</v>
+        <v>484916.0540423965</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21138955.59783732</v>
+        <v>21138955.5978373</v>
       </c>
     </row>
     <row r="9">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="C11" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1414,22 +1414,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>81.61928733384123</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>57.9657161496179</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1457,13 +1457,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="F12" t="n">
-        <v>81.61928733384123</v>
+        <v>67.27654854321854</v>
       </c>
       <c r="G12" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1493,16 +1493,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>81.61928733384124</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="U14" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="V14" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>81.61928733384123</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1739,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="U15" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="V15" t="n">
-        <v>92.6649492891022</v>
+        <v>81.61928733384124</v>
       </c>
       <c r="W15" t="n">
-        <v>81.61928733384123</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="X15" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>57.9657161496179</v>
       </c>
       <c r="F17" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>23.65357118422324</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="S17" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>57.96571614961795</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,76 +1922,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>81.61928733384123</v>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>92.6649492891022</v>
-      </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>81.61928733384119</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>81.61928733384117</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
         <v>81.61928733384123</v>
       </c>
-      <c r="S21" t="n">
-        <v>92.66494928910222</v>
-      </c>
       <c r="T21" t="n">
-        <v>92.66494928910222</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="W21" t="n">
-        <v>92.66494928910222</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>45.52347904402988</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>69.17705022825315</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2402,13 +2402,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>98.8247775506934</v>
@@ -2447,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>87.04486406665072</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="W24" t="n">
-        <v>87.04486406665072</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>69.17705022825315</v>
       </c>
       <c r="V26" t="n">
-        <v>69.17705022825315</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="W26" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2639,61 +2639,61 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>87.04486406665072</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
         <v>98.8247775506934</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>87.04486406665072</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>98.8247775506934</v>
@@ -2791,23 +2791,23 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>98.8247775506934</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>45.52347904402989</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>98.8247775506934</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>69.17705022825315</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2915,13 +2915,13 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>72.70212527602803</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>98.8247775506934</v>
       </c>
       <c r="X30" t="n">
-        <v>87.04486406665072</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3034,55 +3034,55 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>69.17705022825315</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
         <v>98.8247775506934</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="U32" t="n">
         <v>98.8247775506934</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3158,19 +3158,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>87.04486406665072</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
         <v>92.66494928910222</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="D35" t="n">
-        <v>92.66494928910222</v>
+        <v>81.61928733384114</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>57.96571614961792</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="U36" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>92.66494928910222</v>
       </c>
       <c r="X36" t="n">
-        <v>81.6192873338412</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>81.61928733384114</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3632,19 +3632,19 @@
         <v>84.56947841277972</v>
       </c>
       <c r="S39" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>89.71475821016375</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="V39" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>89.71475821016372</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3742,16 +3742,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>92.66494928910221</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="F41" t="n">
-        <v>92.66494928910221</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>92.66494928910221</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="V41" t="n">
-        <v>81.61928733384117</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>92.66494928910221</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>92.66494928910221</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>92.66494928910221</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X42" t="n">
-        <v>81.61928733384119</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
     </row>
     <row r="43">
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>92.66494928910225</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>81.61928733384119</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>92.66494928910221</v>
+        <v>81.61928733384129</v>
       </c>
       <c r="U44" t="n">
-        <v>92.66494928910221</v>
+        <v>92.66494928910225</v>
       </c>
       <c r="V44" t="n">
-        <v>92.66494928910221</v>
+        <v>92.66494928910225</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>92.66494928910221</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4067,16 +4067,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>92.66494928910225</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>92.66494928910225</v>
       </c>
       <c r="H45" t="n">
-        <v>92.66494928910221</v>
+        <v>92.66494928910225</v>
       </c>
       <c r="I45" t="n">
-        <v>65.63472101605001</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>84.56947841277972</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>24.08003719411364</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>81.61928733384129</v>
       </c>
     </row>
     <row r="46">
@@ -5020,37 +5020,37 @@
         <v>101.0141548210092</v>
       </c>
       <c r="C11" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="D11" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="E11" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="F11" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="G11" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="H11" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="I11" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="J11" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="K11" t="n">
-        <v>21.1835736482145</v>
+        <v>21.18357364821452</v>
       </c>
       <c r="L11" t="n">
-        <v>75.16870670940375</v>
+        <v>75.16870670940371</v>
       </c>
       <c r="M11" t="n">
-        <v>166.907006505615</v>
+        <v>166.9070065056149</v>
       </c>
       <c r="N11" t="n">
         <v>258.6453063018262</v>
@@ -5059,34 +5059,34 @@
         <v>337.6943058037293</v>
       </c>
       <c r="P11" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="Q11" t="n">
-        <v>370.6597971564088</v>
+        <v>346.7673010107288</v>
       </c>
       <c r="R11" t="n">
-        <v>370.6597971564088</v>
+        <v>346.7673010107288</v>
       </c>
       <c r="S11" t="n">
-        <v>288.2160725767712</v>
+        <v>346.7673010107288</v>
       </c>
       <c r="T11" t="n">
-        <v>194.6151136988902</v>
+        <v>346.7673010107288</v>
       </c>
       <c r="U11" t="n">
-        <v>101.0141548210092</v>
+        <v>253.1663421328478</v>
       </c>
       <c r="V11" t="n">
-        <v>101.0141548210092</v>
+        <v>194.6151136988903</v>
       </c>
       <c r="W11" t="n">
-        <v>101.0141548210092</v>
+        <v>194.6151136988903</v>
       </c>
       <c r="X11" t="n">
-        <v>101.0141548210092</v>
+        <v>194.6151136988903</v>
       </c>
       <c r="Y11" t="n">
-        <v>101.0141548210092</v>
+        <v>194.6151136988903</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>183.4578794006468</v>
+        <v>168.9702644606239</v>
       </c>
       <c r="C12" t="n">
-        <v>183.4578794006468</v>
+        <v>168.9702644606239</v>
       </c>
       <c r="D12" t="n">
-        <v>183.4578794006468</v>
+        <v>168.9702644606239</v>
       </c>
       <c r="E12" t="n">
-        <v>183.4578794006468</v>
+        <v>75.36930558274287</v>
       </c>
       <c r="F12" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="G12" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="H12" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="I12" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="J12" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="K12" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="L12" t="n">
-        <v>81.81537555601324</v>
+        <v>81.81537555601327</v>
       </c>
       <c r="M12" t="n">
-        <v>173.5536753522244</v>
+        <v>134.8197310560414</v>
       </c>
       <c r="N12" t="n">
-        <v>265.2919751484356</v>
+        <v>226.5580308522526</v>
       </c>
       <c r="O12" t="n">
-        <v>317.2247932514005</v>
+        <v>317.2247932514006</v>
       </c>
       <c r="P12" t="n">
-        <v>370.6597971564088</v>
+        <v>370.659797156409</v>
       </c>
       <c r="Q12" t="n">
-        <v>370.6597971564088</v>
+        <v>356.172182216386</v>
       </c>
       <c r="R12" t="n">
-        <v>370.6597971564088</v>
+        <v>356.172182216386</v>
       </c>
       <c r="S12" t="n">
-        <v>277.0588382785278</v>
+        <v>356.172182216386</v>
       </c>
       <c r="T12" t="n">
-        <v>183.4578794006468</v>
+        <v>356.172182216386</v>
       </c>
       <c r="U12" t="n">
-        <v>183.4578794006468</v>
+        <v>356.172182216386</v>
       </c>
       <c r="V12" t="n">
-        <v>183.4578794006468</v>
+        <v>356.172182216386</v>
       </c>
       <c r="W12" t="n">
-        <v>183.4578794006468</v>
+        <v>262.571223338505</v>
       </c>
       <c r="X12" t="n">
-        <v>183.4578794006468</v>
+        <v>262.571223338505</v>
       </c>
       <c r="Y12" t="n">
-        <v>183.4578794006468</v>
+        <v>262.571223338505</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="C13" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="D13" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="E13" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="F13" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="G13" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="H13" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="I13" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="J13" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="K13" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="L13" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="M13" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="N13" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="O13" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="P13" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="R13" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="S13" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="T13" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="U13" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="V13" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="W13" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="X13" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="C14" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="D14" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="E14" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="F14" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="G14" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="H14" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="I14" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="J14" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="K14" t="n">
         <v>21.18357364821452</v>
       </c>
       <c r="L14" t="n">
-        <v>75.16870670940369</v>
+        <v>75.16870670940379</v>
       </c>
       <c r="M14" t="n">
-        <v>166.9070065056149</v>
+        <v>166.907006505615</v>
       </c>
       <c r="N14" t="n">
-        <v>258.6453063018261</v>
+        <v>258.6453063018262</v>
       </c>
       <c r="O14" t="n">
-        <v>337.6943058037292</v>
+        <v>337.6943058037294</v>
       </c>
       <c r="P14" t="n">
-        <v>370.6597971564088</v>
+        <v>370.659797156409</v>
       </c>
       <c r="Q14" t="n">
-        <v>370.6597971564088</v>
+        <v>370.659797156409</v>
       </c>
       <c r="R14" t="n">
-        <v>370.6597971564088</v>
+        <v>370.659797156409</v>
       </c>
       <c r="S14" t="n">
-        <v>370.6597971564088</v>
+        <v>370.659797156409</v>
       </c>
       <c r="T14" t="n">
-        <v>277.0588382785278</v>
+        <v>277.0588382785279</v>
       </c>
       <c r="U14" t="n">
         <v>183.4578794006468</v>
       </c>
       <c r="V14" t="n">
-        <v>89.85692052276578</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="W14" t="n">
-        <v>7.413195943128176</v>
+        <v>89.85692052276579</v>
       </c>
       <c r="X14" t="n">
-        <v>7.413195943128176</v>
+        <v>89.85692052276579</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.413195943128176</v>
+        <v>89.85692052276579</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="C15" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="D15" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="E15" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="F15" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="G15" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="H15" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="I15" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="J15" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="K15" t="n">
-        <v>7.413195943128176</v>
+        <v>28.29609765201164</v>
       </c>
       <c r="L15" t="n">
-        <v>81.81537555601327</v>
+        <v>43.08143125983018</v>
       </c>
       <c r="M15" t="n">
-        <v>173.5536753522244</v>
+        <v>134.8197310560414</v>
       </c>
       <c r="N15" t="n">
-        <v>226.5580308522524</v>
+        <v>226.5580308522526</v>
       </c>
       <c r="O15" t="n">
-        <v>317.2247932514005</v>
+        <v>317.2247932514006</v>
       </c>
       <c r="P15" t="n">
-        <v>370.6597971564088</v>
+        <v>370.659797156409</v>
       </c>
       <c r="Q15" t="n">
-        <v>370.6597971564088</v>
+        <v>370.659797156409</v>
       </c>
       <c r="R15" t="n">
-        <v>370.6597971564088</v>
+        <v>370.659797156409</v>
       </c>
       <c r="S15" t="n">
-        <v>370.6597971564088</v>
+        <v>370.659797156409</v>
       </c>
       <c r="T15" t="n">
-        <v>370.6597971564088</v>
+        <v>277.0588382785279</v>
       </c>
       <c r="U15" t="n">
-        <v>277.0588382785278</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="V15" t="n">
-        <v>183.4578794006468</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="W15" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="X15" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="C16" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="D16" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="E16" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="F16" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="G16" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="H16" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="I16" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="J16" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="K16" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="L16" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="M16" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="N16" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="O16" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="P16" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="R16" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="S16" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="T16" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="U16" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="V16" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="W16" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="X16" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>194.6151136988902</v>
+        <v>65.96442437708566</v>
       </c>
       <c r="C17" t="n">
-        <v>101.0141548210092</v>
+        <v>65.96442437708566</v>
       </c>
       <c r="D17" t="n">
-        <v>101.0141548210092</v>
+        <v>65.96442437708566</v>
       </c>
       <c r="E17" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="F17" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="G17" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="H17" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="I17" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="J17" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="K17" t="n">
-        <v>21.18357364821451</v>
+        <v>21.18357364821452</v>
       </c>
       <c r="L17" t="n">
-        <v>75.16870670940366</v>
+        <v>75.16870670940371</v>
       </c>
       <c r="M17" t="n">
-        <v>166.9070065056148</v>
+        <v>166.9070065056149</v>
       </c>
       <c r="N17" t="n">
-        <v>258.6453063018261</v>
+        <v>258.6453063018262</v>
       </c>
       <c r="O17" t="n">
-        <v>337.6943058037292</v>
+        <v>337.6943058037293</v>
       </c>
       <c r="P17" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="Q17" t="n">
-        <v>346.7673010107287</v>
+        <v>346.7673010107288</v>
       </c>
       <c r="R17" t="n">
-        <v>346.7673010107287</v>
+        <v>253.1663421328478</v>
       </c>
       <c r="S17" t="n">
-        <v>253.1663421328477</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="T17" t="n">
-        <v>253.1663421328477</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="U17" t="n">
-        <v>194.6151136988902</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="V17" t="n">
-        <v>194.6151136988902</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="W17" t="n">
-        <v>194.6151136988902</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="X17" t="n">
-        <v>194.6151136988902</v>
+        <v>65.96442437708566</v>
       </c>
       <c r="Y17" t="n">
-        <v>194.6151136988902</v>
+        <v>65.96442437708566</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>89.85692052276578</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="C18" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="D18" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="E18" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="F18" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="G18" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="H18" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="I18" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="J18" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="K18" t="n">
-        <v>7.413195943128176</v>
+        <v>28.29609765201164</v>
       </c>
       <c r="L18" t="n">
-        <v>81.81537555601327</v>
+        <v>102.6982772648967</v>
       </c>
       <c r="M18" t="n">
-        <v>134.8197310560413</v>
+        <v>194.436577061108</v>
       </c>
       <c r="N18" t="n">
-        <v>226.5580308522524</v>
+        <v>226.5580308522526</v>
       </c>
       <c r="O18" t="n">
-        <v>317.2247932514005</v>
+        <v>317.2247932514006</v>
       </c>
       <c r="P18" t="n">
-        <v>370.6597971564088</v>
+        <v>370.659797156409</v>
       </c>
       <c r="Q18" t="n">
-        <v>370.6597971564088</v>
+        <v>370.659797156409</v>
       </c>
       <c r="R18" t="n">
-        <v>370.6597971564088</v>
+        <v>370.659797156409</v>
       </c>
       <c r="S18" t="n">
-        <v>370.6597971564088</v>
+        <v>370.659797156409</v>
       </c>
       <c r="T18" t="n">
-        <v>277.0588382785278</v>
+        <v>288.2160725767714</v>
       </c>
       <c r="U18" t="n">
-        <v>277.0588382785278</v>
+        <v>194.6151136988903</v>
       </c>
       <c r="V18" t="n">
-        <v>277.0588382785278</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="W18" t="n">
-        <v>277.0588382785278</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="X18" t="n">
-        <v>277.0588382785278</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="Y18" t="n">
-        <v>183.4578794006468</v>
+        <v>7.413195943128179</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="C19" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="D19" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="E19" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="F19" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="G19" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="H19" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="I19" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="J19" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="K19" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="L19" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="M19" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="N19" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="O19" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="P19" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="R19" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="S19" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="T19" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="U19" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="V19" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="W19" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="X19" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128179</v>
       </c>
     </row>
     <row r="20">
@@ -5731,73 +5731,73 @@
         <v>101.0141548210092</v>
       </c>
       <c r="C20" t="n">
-        <v>7.413195943128178</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="D20" t="n">
-        <v>7.413195943128178</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="E20" t="n">
-        <v>7.413195943128178</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="F20" t="n">
-        <v>7.413195943128178</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="G20" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="H20" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="I20" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="J20" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="K20" t="n">
         <v>21.18357364821452</v>
       </c>
       <c r="L20" t="n">
-        <v>75.16870670940369</v>
+        <v>75.16870670940371</v>
       </c>
       <c r="M20" t="n">
         <v>166.9070065056149</v>
       </c>
       <c r="N20" t="n">
-        <v>258.6453063018261</v>
+        <v>258.6453063018262</v>
       </c>
       <c r="O20" t="n">
         <v>337.6943058037293</v>
       </c>
       <c r="P20" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="Q20" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="R20" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="S20" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="T20" t="n">
-        <v>370.6597971564088</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="U20" t="n">
-        <v>370.6597971564088</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="V20" t="n">
-        <v>370.6597971564088</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="W20" t="n">
-        <v>370.6597971564088</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="X20" t="n">
-        <v>288.2160725767713</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="Y20" t="n">
-        <v>194.6151136988902</v>
+        <v>101.0141548210092</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="C21" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="D21" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="E21" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="F21" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="G21" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="H21" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="I21" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="J21" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="K21" t="n">
-        <v>28.29609765201163</v>
+        <v>28.29609765201164</v>
       </c>
       <c r="L21" t="n">
         <v>102.6982772648967</v>
       </c>
       <c r="M21" t="n">
-        <v>134.8197310560413</v>
+        <v>194.436577061108</v>
       </c>
       <c r="N21" t="n">
-        <v>226.5580308522526</v>
+        <v>279.9930347572609</v>
       </c>
       <c r="O21" t="n">
-        <v>317.2247932514006</v>
+        <v>370.659797156409</v>
       </c>
       <c r="P21" t="n">
-        <v>370.6597971564089</v>
+        <v>370.659797156409</v>
       </c>
       <c r="Q21" t="n">
-        <v>370.6597971564089</v>
+        <v>370.659797156409</v>
       </c>
       <c r="R21" t="n">
-        <v>288.2160725767713</v>
+        <v>370.659797156409</v>
       </c>
       <c r="S21" t="n">
-        <v>194.6151136988902</v>
+        <v>288.2160725767714</v>
       </c>
       <c r="T21" t="n">
-        <v>101.0141548210092</v>
+        <v>194.6151136988903</v>
       </c>
       <c r="U21" t="n">
-        <v>101.0141548210092</v>
+        <v>194.6151136988903</v>
       </c>
       <c r="V21" t="n">
         <v>101.0141548210092</v>
       </c>
       <c r="W21" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="X21" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="Y21" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="C22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="D22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="E22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="F22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="G22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="H22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="I22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="J22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="K22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="L22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="M22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="N22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="O22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="P22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="R22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="S22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="T22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="U22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="V22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="W22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="X22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128179</v>
       </c>
     </row>
     <row r="23">
@@ -6010,31 +6010,31 @@
         <v>377.2508133963114</v>
       </c>
       <c r="Q23" t="n">
-        <v>353.3583172506313</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="R23" t="n">
-        <v>307.3750050849446</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="S23" t="n">
-        <v>307.3750050849446</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="T23" t="n">
-        <v>307.3750050849446</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="U23" t="n">
-        <v>307.3750050849446</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="V23" t="n">
-        <v>307.3750050849446</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="W23" t="n">
-        <v>307.3750050849446</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="X23" t="n">
-        <v>307.3750050849446</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="Y23" t="n">
-        <v>307.3750050849446</v>
+        <v>207.5519974579815</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>307.3750050849446</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="C24" t="n">
-        <v>307.3750050849446</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="D24" t="n">
-        <v>207.5519974579815</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="E24" t="n">
-        <v>207.5519974579815</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="F24" t="n">
         <v>107.7289898310185</v>
@@ -6077,7 +6077,7 @@
         <v>103.191063525824</v>
       </c>
       <c r="M24" t="n">
-        <v>153.3608141234308</v>
+        <v>201.0275933010105</v>
       </c>
       <c r="N24" t="n">
         <v>251.1973438986172</v>
@@ -6095,25 +6095,25 @@
         <v>395.2991102027736</v>
       </c>
       <c r="S24" t="n">
-        <v>395.2991102027736</v>
+        <v>295.4761025758106</v>
       </c>
       <c r="T24" t="n">
-        <v>395.2991102027736</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="U24" t="n">
-        <v>395.2991102027736</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="V24" t="n">
-        <v>395.2991102027736</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="W24" t="n">
-        <v>307.3750050849446</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="X24" t="n">
-        <v>307.3750050849446</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="Y24" t="n">
-        <v>307.3750050849446</v>
+        <v>107.7289898310185</v>
       </c>
     </row>
     <row r="25">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>207.5519974579815</v>
+      </c>
+      <c r="C26" t="n">
         <v>107.7289898310185</v>
       </c>
-      <c r="C26" t="n">
-        <v>7.905982204055472</v>
-      </c>
       <c r="D26" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="E26" t="n">
         <v>7.905982204055472</v>
@@ -6259,19 +6259,19 @@
         <v>377.2508133963114</v>
       </c>
       <c r="U26" t="n">
-        <v>377.2508133963114</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="V26" t="n">
-        <v>307.3750050849446</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="W26" t="n">
         <v>207.5519974579815</v>
       </c>
       <c r="X26" t="n">
-        <v>107.7289898310185</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="Y26" t="n">
-        <v>107.7289898310185</v>
+        <v>207.5519974579815</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>195.6530949488475</v>
+        <v>95.83008732188449</v>
       </c>
       <c r="C27" t="n">
-        <v>195.6530949488475</v>
+        <v>95.83008732188449</v>
       </c>
       <c r="D27" t="n">
         <v>95.83008732188449</v>
@@ -6293,7 +6293,7 @@
         <v>95.83008732188449</v>
       </c>
       <c r="F27" t="n">
-        <v>7.905982204055472</v>
+        <v>95.83008732188449</v>
       </c>
       <c r="G27" t="n">
         <v>7.905982204055472</v>
@@ -6332,25 +6332,25 @@
         <v>395.2991102027736</v>
       </c>
       <c r="S27" t="n">
-        <v>395.2991102027736</v>
+        <v>295.4761025758106</v>
       </c>
       <c r="T27" t="n">
-        <v>395.2991102027736</v>
+        <v>195.6530949488475</v>
       </c>
       <c r="U27" t="n">
-        <v>395.2991102027736</v>
+        <v>195.6530949488475</v>
       </c>
       <c r="V27" t="n">
-        <v>295.4761025758106</v>
+        <v>195.6530949488475</v>
       </c>
       <c r="W27" t="n">
-        <v>195.6530949488475</v>
+        <v>95.83008732188449</v>
       </c>
       <c r="X27" t="n">
-        <v>195.6530949488475</v>
+        <v>95.83008732188449</v>
       </c>
       <c r="Y27" t="n">
-        <v>195.6530949488475</v>
+        <v>95.83008732188449</v>
       </c>
     </row>
     <row r="28">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>53.88929436974223</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="C29" t="n">
-        <v>53.88929436974223</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="D29" t="n">
-        <v>53.88929436974223</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="E29" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="F29" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="G29" t="n">
         <v>7.905982204055472</v>
@@ -6484,31 +6484,31 @@
         <v>377.2508133963114</v>
       </c>
       <c r="Q29" t="n">
-        <v>353.3583172506313</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="R29" t="n">
-        <v>253.5353096236683</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="S29" t="n">
-        <v>253.5353096236683</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="T29" t="n">
-        <v>253.5353096236683</v>
+        <v>177.6047981423853</v>
       </c>
       <c r="U29" t="n">
-        <v>253.5353096236683</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="V29" t="n">
-        <v>253.5353096236683</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="W29" t="n">
-        <v>253.5353096236683</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="X29" t="n">
-        <v>253.5353096236683</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="Y29" t="n">
-        <v>153.7123019967053</v>
+        <v>107.7289898310185</v>
       </c>
     </row>
     <row r="30">
@@ -6554,34 +6554,34 @@
         <v>201.0275933010105</v>
       </c>
       <c r="N30" t="n">
-        <v>251.1973438986172</v>
+        <v>298.864123076197</v>
       </c>
       <c r="O30" t="n">
-        <v>341.8641062977653</v>
+        <v>389.530885475345</v>
       </c>
       <c r="P30" t="n">
         <v>395.2991102027736</v>
       </c>
       <c r="Q30" t="n">
-        <v>395.2991102027736</v>
+        <v>380.8114952627507</v>
       </c>
       <c r="R30" t="n">
-        <v>395.2991102027736</v>
+        <v>380.8114952627507</v>
       </c>
       <c r="S30" t="n">
-        <v>395.2991102027736</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="T30" t="n">
-        <v>395.2991102027736</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="U30" t="n">
-        <v>295.4761025758106</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="V30" t="n">
-        <v>195.6530949488475</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="W30" t="n">
-        <v>95.83008732188449</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="X30" t="n">
         <v>7.905982204055472</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>177.6047981423853</v>
+        <v>77.7817905154223</v>
       </c>
       <c r="C32" t="n">
-        <v>177.6047981423853</v>
+        <v>77.7817905154223</v>
       </c>
       <c r="D32" t="n">
-        <v>107.7289898310185</v>
+        <v>77.7817905154223</v>
       </c>
       <c r="E32" t="n">
-        <v>107.7289898310185</v>
+        <v>77.7817905154223</v>
       </c>
       <c r="F32" t="n">
-        <v>7.905982204055472</v>
+        <v>77.7817905154223</v>
       </c>
       <c r="G32" t="n">
         <v>7.905982204055472</v>
@@ -6724,28 +6724,28 @@
         <v>377.2508133963114</v>
       </c>
       <c r="R32" t="n">
-        <v>377.2508133963114</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="S32" t="n">
-        <v>377.2508133963114</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="T32" t="n">
-        <v>377.2508133963114</v>
+        <v>177.6047981423853</v>
       </c>
       <c r="U32" t="n">
-        <v>277.4278057693484</v>
+        <v>77.7817905154223</v>
       </c>
       <c r="V32" t="n">
-        <v>277.4278057693484</v>
+        <v>77.7817905154223</v>
       </c>
       <c r="W32" t="n">
-        <v>277.4278057693484</v>
+        <v>77.7817905154223</v>
       </c>
       <c r="X32" t="n">
-        <v>177.6047981423853</v>
+        <v>77.7817905154223</v>
       </c>
       <c r="Y32" t="n">
-        <v>177.6047981423853</v>
+        <v>77.7817905154223</v>
       </c>
     </row>
     <row r="33">
@@ -6761,13 +6761,13 @@
         <v>107.7289898310185</v>
       </c>
       <c r="D33" t="n">
-        <v>107.7289898310185</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="E33" t="n">
-        <v>107.7289898310185</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="F33" t="n">
-        <v>107.7289898310185</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="G33" t="n">
         <v>7.905982204055472</v>
@@ -6788,10 +6788,10 @@
         <v>103.191063525824</v>
       </c>
       <c r="M33" t="n">
-        <v>201.0275933010105</v>
+        <v>153.3608141234308</v>
       </c>
       <c r="N33" t="n">
-        <v>298.864123076197</v>
+        <v>251.1973438986172</v>
       </c>
       <c r="O33" t="n">
         <v>341.8641062977653</v>
@@ -6806,16 +6806,16 @@
         <v>395.2991102027736</v>
       </c>
       <c r="S33" t="n">
-        <v>295.4761025758106</v>
+        <v>395.2991102027736</v>
       </c>
       <c r="T33" t="n">
-        <v>195.6530949488475</v>
+        <v>395.2991102027736</v>
       </c>
       <c r="U33" t="n">
-        <v>107.7289898310185</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="V33" t="n">
-        <v>107.7289898310185</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="W33" t="n">
         <v>107.7289898310185</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>159.5653832549667</v>
+        <v>183.4578794006467</v>
       </c>
       <c r="C35" t="n">
-        <v>159.5653832549667</v>
+        <v>89.85692052276569</v>
       </c>
       <c r="D35" t="n">
-        <v>65.96442437708568</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="E35" t="n">
-        <v>65.96442437708568</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="F35" t="n">
-        <v>65.96442437708568</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="G35" t="n">
-        <v>65.96442437708568</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="H35" t="n">
         <v>7.413195943128178</v>
@@ -6958,31 +6958,31 @@
         <v>370.6597971564088</v>
       </c>
       <c r="Q35" t="n">
-        <v>346.7673010107288</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R35" t="n">
-        <v>346.7673010107288</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S35" t="n">
-        <v>346.7673010107288</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T35" t="n">
-        <v>346.7673010107288</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U35" t="n">
-        <v>346.7673010107288</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="V35" t="n">
-        <v>346.7673010107288</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="W35" t="n">
-        <v>346.7673010107288</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="X35" t="n">
-        <v>346.7673010107288</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Y35" t="n">
-        <v>253.1663421328478</v>
+        <v>277.0588382785278</v>
       </c>
     </row>
     <row r="36">
@@ -7019,13 +7019,13 @@
         <v>7.413195943128178</v>
       </c>
       <c r="K36" t="n">
-        <v>28.29609765201163</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="L36" t="n">
-        <v>102.6982772648967</v>
+        <v>81.81537555601327</v>
       </c>
       <c r="M36" t="n">
-        <v>134.8197310560413</v>
+        <v>173.5536753522245</v>
       </c>
       <c r="N36" t="n">
         <v>226.5580308522526</v>
@@ -7040,22 +7040,22 @@
         <v>370.6597971564089</v>
       </c>
       <c r="R36" t="n">
-        <v>370.6597971564089</v>
+        <v>288.2160725767713</v>
       </c>
       <c r="S36" t="n">
-        <v>370.6597971564089</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="T36" t="n">
-        <v>370.6597971564089</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="U36" t="n">
-        <v>277.0588382785278</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="V36" t="n">
-        <v>183.4578794006468</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="W36" t="n">
-        <v>89.85692052276575</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="X36" t="n">
         <v>7.413195943128178</v>
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>89.85692052276569</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="C38" t="n">
-        <v>89.85692052276569</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="D38" t="n">
-        <v>89.85692052276569</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="E38" t="n">
-        <v>89.85692052276569</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="F38" t="n">
-        <v>89.85692052276569</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="G38" t="n">
-        <v>89.85692052276569</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="H38" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I38" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J38" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K38" t="n">
         <v>21.18357364821452</v>
@@ -7189,7 +7189,7 @@
         <v>258.6453063018261</v>
       </c>
       <c r="O38" t="n">
-        <v>337.6943058037293</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P38" t="n">
         <v>370.6597971564088</v>
@@ -7204,22 +7204,22 @@
         <v>277.0588382785278</v>
       </c>
       <c r="T38" t="n">
-        <v>183.4578794006467</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="U38" t="n">
-        <v>89.85692052276569</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="V38" t="n">
-        <v>89.85692052276569</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="W38" t="n">
-        <v>89.85692052276569</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="X38" t="n">
-        <v>89.85692052276569</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="Y38" t="n">
-        <v>89.85692052276569</v>
+        <v>277.0588382785278</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C39" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D39" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E39" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F39" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G39" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H39" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I39" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J39" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K39" t="n">
         <v>28.29609765201163</v>
@@ -7265,40 +7265,40 @@
         <v>134.8197310560413</v>
       </c>
       <c r="N39" t="n">
-        <v>226.5580308522526</v>
+        <v>226.5580308522524</v>
       </c>
       <c r="O39" t="n">
-        <v>317.2247932514006</v>
+        <v>317.2247932514005</v>
       </c>
       <c r="P39" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q39" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R39" t="n">
-        <v>285.2360815879446</v>
+        <v>285.2360815879445</v>
       </c>
       <c r="S39" t="n">
+        <v>285.2360815879445</v>
+      </c>
+      <c r="T39" t="n">
+        <v>285.2360815879445</v>
+      </c>
+      <c r="U39" t="n">
         <v>191.6351227100635</v>
       </c>
-      <c r="T39" t="n">
-        <v>101.0141548210092</v>
-      </c>
-      <c r="U39" t="n">
-        <v>101.0141548210092</v>
-      </c>
       <c r="V39" t="n">
-        <v>7.413195943128178</v>
+        <v>98.03416383218244</v>
       </c>
       <c r="W39" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X39" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="M40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="N40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="O40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="P40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="R40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="S40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="T40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="U40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="V40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="W40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>194.6151136988902</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="C41" t="n">
         <v>101.0141548210092</v>
@@ -7396,37 +7396,37 @@
         <v>101.0141548210092</v>
       </c>
       <c r="E41" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F41" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G41" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H41" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I41" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J41" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K41" t="n">
-        <v>21.18357364821441</v>
+        <v>21.18357364821451</v>
       </c>
       <c r="L41" t="n">
-        <v>75.16870670940376</v>
+        <v>75.16870670940374</v>
       </c>
       <c r="M41" t="n">
-        <v>166.907006505615</v>
+        <v>166.9070065056148</v>
       </c>
       <c r="N41" t="n">
         <v>258.6453063018261</v>
       </c>
       <c r="O41" t="n">
-        <v>337.6943058037293</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P41" t="n">
         <v>370.6597971564088</v>
@@ -7441,22 +7441,22 @@
         <v>370.6597971564088</v>
       </c>
       <c r="T41" t="n">
-        <v>277.0588382785278</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U41" t="n">
         <v>277.0588382785278</v>
       </c>
       <c r="V41" t="n">
-        <v>194.6151136988902</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="W41" t="n">
-        <v>194.6151136988902</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="X41" t="n">
-        <v>194.6151136988902</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="Y41" t="n">
-        <v>194.6151136988902</v>
+        <v>101.0141548210092</v>
       </c>
     </row>
     <row r="42">
@@ -7466,31 +7466,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7.413195943128177</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="C42" t="n">
-        <v>7.413195943128177</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="D42" t="n">
-        <v>7.413195943128177</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="E42" t="n">
-        <v>7.413195943128177</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="F42" t="n">
-        <v>7.413195943128177</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="G42" t="n">
-        <v>7.413195943128177</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="H42" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I42" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J42" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K42" t="n">
         <v>28.29609765201163</v>
@@ -7502,7 +7502,7 @@
         <v>134.8197310560413</v>
       </c>
       <c r="N42" t="n">
-        <v>226.5580308522525</v>
+        <v>226.5580308522524</v>
       </c>
       <c r="O42" t="n">
         <v>317.2247932514005</v>
@@ -7517,25 +7517,25 @@
         <v>370.6597971564088</v>
       </c>
       <c r="S42" t="n">
+        <v>370.6597971564088</v>
+      </c>
+      <c r="T42" t="n">
+        <v>370.6597971564088</v>
+      </c>
+      <c r="U42" t="n">
+        <v>370.6597971564088</v>
+      </c>
+      <c r="V42" t="n">
         <v>277.0588382785278</v>
       </c>
-      <c r="T42" t="n">
+      <c r="W42" t="n">
         <v>183.4578794006468</v>
       </c>
-      <c r="U42" t="n">
-        <v>89.85692052276573</v>
-      </c>
-      <c r="V42" t="n">
-        <v>89.85692052276573</v>
-      </c>
-      <c r="W42" t="n">
-        <v>89.85692052276573</v>
-      </c>
       <c r="X42" t="n">
-        <v>7.413195943128177</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="Y42" t="n">
-        <v>7.413195943128177</v>
+        <v>89.85692052276578</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C43" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D43" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E43" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F43" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G43" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H43" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I43" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J43" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K43" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L43" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="M43" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="N43" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="O43" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="P43" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="R43" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="S43" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="T43" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="U43" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="V43" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="W43" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X43" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.413195943128177</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>89.85692052276573</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="C44" t="n">
-        <v>89.85692052276573</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="D44" t="n">
-        <v>89.85692052276573</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="E44" t="n">
-        <v>89.85692052276573</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="F44" t="n">
-        <v>89.85692052276573</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="G44" t="n">
-        <v>89.85692052276573</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="H44" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="I44" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="J44" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="K44" t="n">
-        <v>21.18357364821452</v>
+        <v>21.18357364821455</v>
       </c>
       <c r="L44" t="n">
-        <v>75.16870670940369</v>
+        <v>75.16870670940378</v>
       </c>
       <c r="M44" t="n">
-        <v>166.9070065056149</v>
+        <v>166.907006505615</v>
       </c>
       <c r="N44" t="n">
-        <v>258.6453063018261</v>
+        <v>258.6453063018263</v>
       </c>
       <c r="O44" t="n">
-        <v>337.6943058037293</v>
+        <v>337.6943058037294</v>
       </c>
       <c r="P44" t="n">
-        <v>370.6597971564088</v>
+        <v>370.659797156409</v>
       </c>
       <c r="Q44" t="n">
-        <v>370.6597971564088</v>
+        <v>370.659797156409</v>
       </c>
       <c r="R44" t="n">
-        <v>370.6597971564088</v>
+        <v>370.659797156409</v>
       </c>
       <c r="S44" t="n">
-        <v>370.6597971564088</v>
+        <v>370.659797156409</v>
       </c>
       <c r="T44" t="n">
-        <v>277.0588382785278</v>
+        <v>288.2160725767714</v>
       </c>
       <c r="U44" t="n">
-        <v>183.4578794006468</v>
+        <v>194.6151136988903</v>
       </c>
       <c r="V44" t="n">
-        <v>89.85692052276573</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="W44" t="n">
-        <v>89.85692052276573</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="X44" t="n">
-        <v>89.85692052276573</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="Y44" t="n">
-        <v>89.85692052276573</v>
+        <v>101.0141548210092</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>167.3118528170193</v>
+        <v>288.2160725767714</v>
       </c>
       <c r="C45" t="n">
-        <v>167.3118528170193</v>
+        <v>288.2160725767714</v>
       </c>
       <c r="D45" t="n">
-        <v>167.3118528170193</v>
+        <v>288.2160725767714</v>
       </c>
       <c r="E45" t="n">
-        <v>167.3118528170193</v>
+        <v>288.2160725767714</v>
       </c>
       <c r="F45" t="n">
-        <v>167.3118528170193</v>
+        <v>194.6151136988903</v>
       </c>
       <c r="G45" t="n">
-        <v>167.3118528170193</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="H45" t="n">
-        <v>73.71089393913829</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="I45" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="J45" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="K45" t="n">
-        <v>28.29609765201163</v>
+        <v>28.29609765201164</v>
       </c>
       <c r="L45" t="n">
         <v>102.6982772648967</v>
       </c>
       <c r="M45" t="n">
-        <v>134.8197310560413</v>
+        <v>194.436577061108</v>
       </c>
       <c r="N45" t="n">
-        <v>226.5580308522525</v>
+        <v>286.1748768573192</v>
       </c>
       <c r="O45" t="n">
-        <v>317.2247932514005</v>
+        <v>317.2247932514007</v>
       </c>
       <c r="P45" t="n">
-        <v>370.6597971564088</v>
+        <v>370.659797156409</v>
       </c>
       <c r="Q45" t="n">
-        <v>370.6597971564088</v>
+        <v>370.659797156409</v>
       </c>
       <c r="R45" t="n">
-        <v>285.2360815879445</v>
+        <v>370.659797156409</v>
       </c>
       <c r="S45" t="n">
-        <v>285.2360815879445</v>
+        <v>370.659797156409</v>
       </c>
       <c r="T45" t="n">
-        <v>285.2360815879445</v>
+        <v>370.659797156409</v>
       </c>
       <c r="U45" t="n">
-        <v>260.9128116949004</v>
+        <v>370.659797156409</v>
       </c>
       <c r="V45" t="n">
-        <v>260.9128116949004</v>
+        <v>370.659797156409</v>
       </c>
       <c r="W45" t="n">
-        <v>260.9128116949004</v>
+        <v>370.659797156409</v>
       </c>
       <c r="X45" t="n">
-        <v>260.9128116949004</v>
+        <v>370.659797156409</v>
       </c>
       <c r="Y45" t="n">
-        <v>260.9128116949004</v>
+        <v>288.2160725767714</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="C46" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="D46" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="E46" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="F46" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="G46" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="H46" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="I46" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="J46" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="K46" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="L46" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="M46" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="N46" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="O46" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="P46" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="R46" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="S46" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="T46" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="U46" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="V46" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="W46" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="X46" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.413195943128177</v>
+        <v>7.41319594312818</v>
       </c>
     </row>
   </sheetData>
@@ -22564,37 +22564,37 @@
         <v>414.0326130531137</v>
       </c>
       <c r="H2" t="n">
-        <v>326.4671399690904</v>
+        <v>326.4671399690905</v>
       </c>
       <c r="I2" t="n">
         <v>161.5094162483256</v>
       </c>
       <c r="J2" t="n">
-        <v>73.24567846819687</v>
+        <v>73.24567846819694</v>
       </c>
       <c r="K2" t="n">
-        <v>58.52525650912497</v>
+        <v>58.52525650912509</v>
       </c>
       <c r="L2" t="n">
-        <v>35.33124892954402</v>
+        <v>35.33124892954416</v>
       </c>
       <c r="M2" t="n">
-        <v>7.32349128535634</v>
+        <v>7.323491285356511</v>
       </c>
       <c r="N2" t="n">
-        <v>2.781580526956191</v>
+        <v>2.781580526956333</v>
       </c>
       <c r="O2" t="n">
-        <v>16.09652847127737</v>
+        <v>16.09652847127751</v>
       </c>
       <c r="P2" t="n">
-        <v>48.58751046101366</v>
+        <v>48.58751046101381</v>
       </c>
       <c r="Q2" t="n">
-        <v>85.14653687633526</v>
+        <v>85.14653687633538</v>
       </c>
       <c r="R2" t="n">
-        <v>135.8010820766799</v>
+        <v>135.80108207668</v>
       </c>
       <c r="S2" t="n">
         <v>180.0771084079325</v>
@@ -22646,13 +22646,13 @@
         <v>105.6721659462977</v>
       </c>
       <c r="I3" t="n">
-        <v>76.12468037326956</v>
+        <v>76.12468037326957</v>
       </c>
       <c r="J3" t="n">
-        <v>62.63255053171122</v>
+        <v>62.63255053171127</v>
       </c>
       <c r="K3" t="n">
-        <v>28.10473742565395</v>
+        <v>28.10473742565402</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22667,10 +22667,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.205102146993937</v>
+        <v>4.205102146994051</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.23443014508359</v>
+        <v>53.23443014508365</v>
       </c>
       <c r="R3" t="n">
         <v>103.4861490702065</v>
@@ -22728,31 +22728,31 @@
         <v>138.3170164774018</v>
       </c>
       <c r="J4" t="n">
-        <v>86.71521999908964</v>
+        <v>86.71521999908967</v>
       </c>
       <c r="K4" t="n">
-        <v>62.82051361516484</v>
+        <v>62.8205136151649</v>
       </c>
       <c r="L4" t="n">
-        <v>50.18075261468664</v>
+        <v>50.1807526146867</v>
       </c>
       <c r="M4" t="n">
-        <v>49.61737280767906</v>
+        <v>49.61737280767913</v>
       </c>
       <c r="N4" t="n">
-        <v>40.5006877281007</v>
+        <v>40.50068772810077</v>
       </c>
       <c r="O4" t="n">
-        <v>57.92721197712436</v>
+        <v>57.92721197712441</v>
       </c>
       <c r="P4" t="n">
-        <v>68.82125337898725</v>
+        <v>68.82125337898731</v>
       </c>
       <c r="Q4" t="n">
         <v>103.7975391803443</v>
       </c>
       <c r="R4" t="n">
-        <v>151.6760741181035</v>
+        <v>151.6760741181036</v>
       </c>
       <c r="S4" t="n">
         <v>214.0876863536667</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>290.0688923743783</v>
       </c>
       <c r="C11" t="n">
-        <v>272.6079424819054</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.4631744246258</v>
+        <v>320.7982251355236</v>
       </c>
       <c r="H11" t="n">
         <v>320.6353766150897</v>
@@ -23302,22 +23302,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>23.65357118422327</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>100.0310828299331</v>
       </c>
       <c r="S11" t="n">
-        <v>85.48173832742553</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T11" t="n">
-        <v>122.3782128463251</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U11" t="n">
-        <v>158.5335385714936</v>
+        <v>158.5335385714935</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>269.786542320517</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>73.8682343607651</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23345,13 +23345,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>64.9801311662987</v>
       </c>
       <c r="F12" t="n">
-        <v>63.44992505954265</v>
+        <v>77.79266385016534</v>
       </c>
       <c r="G12" t="n">
-        <v>43.69431484884211</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H12" t="n">
         <v>102.729632124056</v>
@@ -23381,16 +23381,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>14.34273879062272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>84.56947841277972</v>
       </c>
       <c r="S12" t="n">
-        <v>60.73615356033713</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T12" t="n">
-        <v>103.5325490100188</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U12" t="n">
         <v>225.8766285924705</v>
@@ -23399,7 +23399,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>159.0300338718174</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23439,28 +23439,28 @@
         <v>130.6355227555885</v>
       </c>
       <c r="J13" t="n">
-        <v>68.65627904547949</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K13" t="n">
-        <v>33.14412614092829</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L13" t="n">
-        <v>12.2051938702684</v>
+        <v>12.20519387026839</v>
       </c>
       <c r="M13" t="n">
-        <v>9.57747067792468</v>
+        <v>9.577470677924651</v>
       </c>
       <c r="N13" t="n">
-        <v>1.412844977410217</v>
+        <v>1.412844977410202</v>
       </c>
       <c r="O13" t="n">
-        <v>21.82326264618301</v>
+        <v>21.823262646183</v>
       </c>
       <c r="P13" t="n">
-        <v>37.92808757638608</v>
+        <v>37.92808757638606</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.40871249605686</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R13" t="n">
         <v>140.1909870721275</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>301.1145543296393</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23551,13 +23551,13 @@
         <v>122.3782128463251</v>
       </c>
       <c r="U14" t="n">
-        <v>158.5335385714936</v>
+        <v>158.5335385714935</v>
       </c>
       <c r="V14" t="n">
-        <v>235.0873091810327</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>267.6216813835718</v>
+        <v>256.5760194283108</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23627,19 +23627,19 @@
         <v>153.4011028494393</v>
       </c>
       <c r="T15" t="n">
-        <v>196.197498299121</v>
+        <v>103.5325490100187</v>
       </c>
       <c r="U15" t="n">
-        <v>133.2116793033683</v>
+        <v>133.2116793033682</v>
       </c>
       <c r="V15" t="n">
-        <v>140.1356378603231</v>
+        <v>151.181299815584</v>
       </c>
       <c r="W15" t="n">
-        <v>170.0756958270784</v>
+        <v>159.0300338718174</v>
       </c>
       <c r="X15" t="n">
-        <v>113.1080359143753</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23734,16 +23734,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>272.6079424819054</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>323.9646539226439</v>
       </c>
       <c r="F17" t="n">
-        <v>314.2110964526092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.4631744246258</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>100.0310828299331</v>
+        <v>7.36613354083083</v>
       </c>
       <c r="S17" t="n">
-        <v>74.43607637216456</v>
+        <v>74.43607637216452</v>
       </c>
       <c r="T17" t="n">
         <v>215.0431621354273</v>
       </c>
       <c r="U17" t="n">
-        <v>193.2327717109778</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>277.0661513893668</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>73.86823436076514</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>91.08921165447451</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23864,22 +23864,22 @@
         <v>153.4011028494393</v>
       </c>
       <c r="T18" t="n">
-        <v>103.5325490100188</v>
+        <v>114.5782109652797</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8766285924705</v>
+        <v>133.2116793033682</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>140.135637860323</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>159.0300338718174</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>113.0177464882022</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>290.0688923743784</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>272.6079424819053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.4631744246258</v>
+        <v>320.7982251355236</v>
       </c>
       <c r="H20" t="n">
         <v>320.6353766150897</v>
@@ -24022,22 +24022,22 @@
         <v>167.1010256612668</v>
       </c>
       <c r="T20" t="n">
-        <v>215.0431621354273</v>
+        <v>122.3782128463251</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1984878605957</v>
+        <v>158.5335385714935</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>246.1329711362937</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>288.1118133446279</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>293.5729893669513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24095,10 +24095,10 @@
         <v>14.3427387906227</v>
       </c>
       <c r="R21" t="n">
-        <v>2.950191078938488</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S21" t="n">
-        <v>60.7361535603371</v>
+        <v>71.7818155155981</v>
       </c>
       <c r="T21" t="n">
         <v>103.5325490100187</v>
@@ -24107,7 +24107,7 @@
         <v>225.8766285924705</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>140.135637860323</v>
       </c>
       <c r="W21" t="n">
         <v>159.0300338718174</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>283.9090641127872</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24250,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R23" t="n">
-        <v>54.50760378590319</v>
+        <v>1.206305279239672</v>
       </c>
       <c r="S23" t="n">
         <v>167.1010256612668</v>
@@ -24265,7 +24265,7 @@
         <v>251.1984878605957</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>258.5752082418817</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24290,13 +24290,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>48.62028801394536</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>46.24443484269048</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>37.53448658725091</v>
@@ -24335,19 +24335,19 @@
         <v>84.56947841277972</v>
       </c>
       <c r="S24" t="n">
-        <v>153.4011028494393</v>
+        <v>54.57632529874593</v>
       </c>
       <c r="T24" t="n">
-        <v>196.197498299121</v>
+        <v>109.1526342324702</v>
       </c>
       <c r="U24" t="n">
         <v>225.8766285924705</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>133.9758095987319</v>
       </c>
       <c r="W24" t="n">
-        <v>164.6501190942689</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24451,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>283.1055925215684</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24499,16 +24499,16 @@
         <v>215.0431621354273</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1984878605957</v>
+        <v>182.0214376323426</v>
       </c>
       <c r="V26" t="n">
-        <v>258.5752082418817</v>
+        <v>228.9274809194415</v>
       </c>
       <c r="W26" t="n">
-        <v>250.4161911667196</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>270.9063231277756</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24527,16 +24527,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>48.62028801394536</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>58.02434832673316</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.3592641379443</v>
+        <v>49.31440007129359</v>
       </c>
       <c r="H27" t="n">
         <v>102.729632124056</v>
@@ -24572,16 +24572,16 @@
         <v>84.56947841277972</v>
       </c>
       <c r="S27" t="n">
-        <v>153.4011028494393</v>
+        <v>54.57632529874593</v>
       </c>
       <c r="T27" t="n">
-        <v>196.197498299121</v>
+        <v>97.37272074842755</v>
       </c>
       <c r="U27" t="n">
         <v>225.8766285924705</v>
       </c>
       <c r="V27" t="n">
-        <v>133.9758095987319</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>152.8702056102262</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>283.9090641127872</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>336.4068910282319</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.4631744246258</v>
+        <v>314.6383968739324</v>
       </c>
       <c r="H29" t="n">
         <v>320.6353766150897</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R29" t="n">
         <v>1.206305279239672</v>
@@ -24733,10 +24733,10 @@
         <v>167.1010256612668</v>
       </c>
       <c r="T29" t="n">
-        <v>215.0431621354273</v>
+        <v>116.2183845847339</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1984878605957</v>
+        <v>182.0214376323426</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>287.4131611053602</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24803,13 +24803,13 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>84.56947841277972</v>
       </c>
       <c r="S30" t="n">
-        <v>153.4011028494393</v>
+        <v>80.6989775734113</v>
       </c>
       <c r="T30" t="n">
         <v>196.197498299121</v>
@@ -24824,7 +24824,7 @@
         <v>152.8702056102262</v>
       </c>
       <c r="X30" t="n">
-        <v>118.7281211368268</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24922,16 +24922,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>285.5059913924298</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>308.051268191018</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.4631744246258</v>
+        <v>344.2861241963727</v>
       </c>
       <c r="H32" t="n">
         <v>320.6353766150897</v>
@@ -24964,13 +24964,13 @@
         <v>23.65357118422324</v>
       </c>
       <c r="R32" t="n">
-        <v>100.0310828299331</v>
+        <v>1.206305279239672</v>
       </c>
       <c r="S32" t="n">
         <v>167.1010256612668</v>
       </c>
       <c r="T32" t="n">
-        <v>215.0431621354273</v>
+        <v>116.2183845847339</v>
       </c>
       <c r="U32" t="n">
         <v>152.3737103099023</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>270.9063231277756</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25001,7 +25001,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>48.62028801394536</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25010,7 +25010,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>37.53448658725091</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H33" t="n">
         <v>102.729632124056</v>
@@ -25046,19 +25046,19 @@
         <v>84.56947841277972</v>
       </c>
       <c r="S33" t="n">
-        <v>54.57632529874593</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T33" t="n">
-        <v>97.37272074842755</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U33" t="n">
         <v>138.8317645258198</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>133.9758095987319</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>152.8702056102262</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25156,10 +25156,10 @@
         <v>290.0688923743784</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>272.6079424819053</v>
       </c>
       <c r="D35" t="n">
-        <v>262.0180923315808</v>
+        <v>273.0637542868418</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25171,7 +25171,7 @@
         <v>413.4631744246258</v>
       </c>
       <c r="H35" t="n">
-        <v>262.6696604654718</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I35" t="n">
         <v>139.5561335235496</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R35" t="n">
         <v>100.0310828299331</v>
@@ -25280,25 +25280,25 @@
         <v>14.3427387906227</v>
       </c>
       <c r="R36" t="n">
-        <v>84.56947841277972</v>
+        <v>2.950191078938488</v>
       </c>
       <c r="S36" t="n">
-        <v>153.4011028494393</v>
+        <v>60.7361535603371</v>
       </c>
       <c r="T36" t="n">
-        <v>196.197498299121</v>
+        <v>103.5325490100187</v>
       </c>
       <c r="U36" t="n">
-        <v>133.2116793033682</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V36" t="n">
-        <v>140.135637860323</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>159.0300338718174</v>
       </c>
       <c r="X36" t="n">
-        <v>124.1536978696363</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25393,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>272.6079424819054</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>262.0180923315808</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25408,7 +25408,7 @@
         <v>413.4631744246258</v>
       </c>
       <c r="H38" t="n">
-        <v>239.0160892812486</v>
+        <v>239.0160892812485</v>
       </c>
       <c r="I38" t="n">
         <v>139.5561335235496</v>
@@ -25438,16 +25438,16 @@
         <v>23.65357118422324</v>
       </c>
       <c r="R38" t="n">
-        <v>7.366133540830845</v>
+        <v>7.366133540830873</v>
       </c>
       <c r="S38" t="n">
         <v>167.1010256612668</v>
       </c>
       <c r="T38" t="n">
-        <v>122.3782128463251</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U38" t="n">
-        <v>158.5335385714935</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25520,19 +25520,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.7361535603371</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T39" t="n">
-        <v>106.4827400889572</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8766285924705</v>
+        <v>133.2116793033683</v>
       </c>
       <c r="V39" t="n">
-        <v>140.135637860323</v>
+        <v>140.1356378603231</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>161.9802249507559</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25630,16 +25630,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>272.6079424819054</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>289.2654207831596</v>
       </c>
       <c r="F41" t="n">
-        <v>314.2110964526092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.4631744246258</v>
@@ -25681,16 +25681,16 @@
         <v>167.1010256612668</v>
       </c>
       <c r="T41" t="n">
-        <v>122.3782128463251</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1984878605957</v>
+        <v>158.5335385714936</v>
       </c>
       <c r="V41" t="n">
-        <v>246.1329711362937</v>
+        <v>235.0873091810327</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>267.6216813835718</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25724,7 +25724,7 @@
         <v>136.3592641379443</v>
       </c>
       <c r="H42" t="n">
-        <v>102.729632124056</v>
+        <v>21.11034479021474</v>
       </c>
       <c r="I42" t="n">
         <v>65.63472101605001</v>
@@ -25757,25 +25757,25 @@
         <v>84.56947841277972</v>
       </c>
       <c r="S42" t="n">
-        <v>60.73615356033712</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T42" t="n">
-        <v>103.5325490100187</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U42" t="n">
-        <v>133.2116793033683</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>140.1356378603231</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>159.0300338718174</v>
       </c>
       <c r="X42" t="n">
-        <v>124.1536978696363</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>113.0177464882022</v>
       </c>
     </row>
     <row r="43">
@@ -25873,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>289.2654207831595</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25882,7 +25882,7 @@
         <v>413.4631744246258</v>
       </c>
       <c r="H44" t="n">
-        <v>239.0160892812486</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I44" t="n">
         <v>139.5561335235496</v>
@@ -25918,7 +25918,7 @@
         <v>167.1010256612668</v>
       </c>
       <c r="T44" t="n">
-        <v>122.3782128463251</v>
+        <v>133.423874801586</v>
       </c>
       <c r="U44" t="n">
         <v>158.5335385714935</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>73.86823436076513</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25955,16 +25955,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>52.40426310428163</v>
       </c>
       <c r="G45" t="n">
-        <v>136.3592641379443</v>
+        <v>43.69431484884205</v>
       </c>
       <c r="H45" t="n">
-        <v>10.06468283495376</v>
+        <v>10.06468283495371</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J45" t="n">
         <v>33.84730027516773</v>
@@ -25991,7 +25991,7 @@
         <v>14.3427387906227</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S45" t="n">
         <v>153.4011028494393</v>
@@ -26000,7 +26000,7 @@
         <v>196.197498299121</v>
       </c>
       <c r="U45" t="n">
-        <v>201.7965913983568</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26012,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>124.0634084434631</v>
       </c>
     </row>
     <row r="46">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>231091.8378446239</v>
+        <v>231091.8378446237</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>335249.3307048347</v>
+        <v>335249.3307048348</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>335249.3307048348</v>
+        <v>335249.3307048347</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>335249.3307048348</v>
+        <v>335249.3307048347</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>337079.6516212554</v>
+        <v>337079.6516212555</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>337079.6516212555</v>
+        <v>337079.6516212554</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>335249.3307048347</v>
+        <v>335249.3307048348</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>335249.3307048348</v>
+        <v>335249.3307048347</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>335249.3307048348</v>
+        <v>335249.3307048347</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99039.35907626733</v>
+        <v>99039.3590762673</v>
       </c>
       <c r="C2" t="n">
         <v>100103.397503056</v>
@@ -26322,19 +26322,19 @@
         <v>100103.397503056</v>
       </c>
       <c r="E2" t="n">
-        <v>143678.2845877863</v>
+        <v>143678.2845877862</v>
       </c>
       <c r="F2" t="n">
-        <v>143678.2845877863</v>
+        <v>143678.2845877862</v>
       </c>
       <c r="G2" t="n">
-        <v>143678.2845877863</v>
+        <v>143678.2845877862</v>
       </c>
       <c r="H2" t="n">
         <v>143678.2845877863</v>
       </c>
       <c r="I2" t="n">
-        <v>144462.7078376807</v>
+        <v>144462.7078376808</v>
       </c>
       <c r="J2" t="n">
         <v>144462.7078376808</v>
@@ -26346,7 +26346,7 @@
         <v>144462.7078376808</v>
       </c>
       <c r="M2" t="n">
-        <v>143678.2845877862</v>
+        <v>143678.2845877863</v>
       </c>
       <c r="N2" t="n">
         <v>143678.2845877863</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>304447.2252514313</v>
+        <v>304447.2252514311</v>
       </c>
       <c r="C3" t="n">
-        <v>3531.094709557314</v>
+        <v>3531.094709557509</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>138352.6270929454</v>
+        <v>138352.6270929455</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1638.027691150586</v>
+        <v>1638.027691150583</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>21557.42218053986</v>
+        <v>21557.42218053987</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>67.14558386063669</v>
+        <v>67.14558386063673</v>
       </c>
       <c r="F4" t="n">
         <v>67.14558386063672</v>
@@ -26459,7 +26459,7 @@
         <v>67.14558386063672</v>
       </c>
       <c r="P4" t="n">
-        <v>67.14558386063672</v>
+        <v>67.14558386063673</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>40599.70256325733</v>
       </c>
       <c r="E5" t="n">
-        <v>15609.51966583622</v>
+        <v>15609.51966583623</v>
       </c>
       <c r="F5" t="n">
-        <v>15609.51966583622</v>
+        <v>15609.51966583623</v>
       </c>
       <c r="G5" t="n">
-        <v>15609.51966583622</v>
+        <v>15609.51966583623</v>
       </c>
       <c r="H5" t="n">
-        <v>15609.51966583622</v>
+        <v>15609.51966583623</v>
       </c>
       <c r="I5" t="n">
         <v>15984.03722414097</v>
@@ -26511,7 +26511,7 @@
         <v>15609.51966583622</v>
       </c>
       <c r="P5" t="n">
-        <v>15609.51966583622</v>
+        <v>15609.51966583623</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-261732.9178921849</v>
+        <v>-247504.0220306498</v>
       </c>
       <c r="C6" t="n">
-        <v>40213.38443616074</v>
+        <v>54396.67865083308</v>
       </c>
       <c r="D6" t="n">
-        <v>43744.47914571803</v>
+        <v>57927.77336039058</v>
       </c>
       <c r="E6" t="n">
-        <v>-24035.22892585425</v>
+        <v>-11719.42987195595</v>
       </c>
       <c r="F6" t="n">
-        <v>114317.3981670912</v>
+        <v>126633.1972209896</v>
       </c>
       <c r="G6" t="n">
-        <v>114317.3981670912</v>
+        <v>126633.1972209896</v>
       </c>
       <c r="H6" t="n">
-        <v>114317.3981670912</v>
+        <v>126633.1972209896</v>
       </c>
       <c r="I6" t="n">
-        <v>113124.3429407084</v>
+        <v>125406.5238553256</v>
       </c>
       <c r="J6" t="n">
-        <v>114762.370631859</v>
+        <v>127044.5515464762</v>
       </c>
       <c r="K6" t="n">
-        <v>114762.370631859</v>
+        <v>127044.5515464762</v>
       </c>
       <c r="L6" t="n">
-        <v>114762.370631859</v>
+        <v>127044.5515464762</v>
       </c>
       <c r="M6" t="n">
-        <v>92759.97598655132</v>
+        <v>105075.7750404497</v>
       </c>
       <c r="N6" t="n">
-        <v>114317.3981670912</v>
+        <v>126633.1972209896</v>
       </c>
       <c r="O6" t="n">
-        <v>114317.3981670912</v>
+        <v>126633.1972209896</v>
       </c>
       <c r="P6" t="n">
-        <v>114317.3981670912</v>
+        <v>126633.1972209896</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>315.943459927825</v>
+        <v>315.9434599278248</v>
       </c>
       <c r="C3" t="n">
         <v>319.8212184980426</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="F4" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="G4" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="H4" t="n">
-        <v>92.66494928910222</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="I4" t="n">
         <v>98.8247775506934</v>
@@ -26825,13 +26825,13 @@
         <v>92.66494928910222</v>
       </c>
       <c r="N4" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O4" t="n">
-        <v>92.66494928910221</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="P4" t="n">
-        <v>92.66494928910221</v>
+        <v>92.66494928910225</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>315.943459927825</v>
+        <v>315.9434599278248</v>
       </c>
       <c r="C3" t="n">
-        <v>3.87775857021763</v>
+        <v>3.877758570217844</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>137.7701002661228</v>
+        <v>137.7701002661229</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6.159828261591173</v>
+        <v>6.159828261591159</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>86.50512102751102</v>
+        <v>86.50512102751107</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.270124462021406</v>
+        <v>1.270124462021405</v>
       </c>
       <c r="H2" t="n">
-        <v>13.00766214667673</v>
+        <v>13.00766214667672</v>
       </c>
       <c r="I2" t="n">
-        <v>48.9664733220803</v>
+        <v>48.96647332208028</v>
       </c>
       <c r="J2" t="n">
-        <v>107.8002260584894</v>
+        <v>107.8002260584893</v>
       </c>
       <c r="K2" t="n">
-        <v>161.5645945358556</v>
+        <v>161.5645945358555</v>
       </c>
       <c r="L2" t="n">
-        <v>200.4351660404432</v>
+        <v>200.4351660404431</v>
       </c>
       <c r="M2" t="n">
-        <v>223.0227419419164</v>
+        <v>223.0227419419162</v>
       </c>
       <c r="N2" t="n">
-        <v>226.6314830696347</v>
+        <v>226.6314830696346</v>
       </c>
       <c r="O2" t="n">
-        <v>214.0016829504094</v>
+        <v>214.0016829504092</v>
       </c>
       <c r="P2" t="n">
-        <v>182.6454852942559</v>
+        <v>182.6454852942557</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.1591529981142</v>
+        <v>137.1591529981141</v>
       </c>
       <c r="R2" t="n">
-        <v>79.78445573745222</v>
+        <v>79.78445573745216</v>
       </c>
       <c r="S2" t="n">
-        <v>28.94296117831282</v>
+        <v>28.9429611783128</v>
       </c>
       <c r="T2" t="n">
-        <v>5.559969832498708</v>
+        <v>5.559969832498704</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1016099569617125</v>
+        <v>0.1016099569617124</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6795764987126802</v>
+        <v>0.6795764987126798</v>
       </c>
       <c r="H3" t="n">
-        <v>6.563278290198781</v>
+        <v>6.563278290198777</v>
       </c>
       <c r="I3" t="n">
-        <v>23.39769962673044</v>
+        <v>23.39769962673043</v>
       </c>
       <c r="J3" t="n">
-        <v>64.20507613495548</v>
+        <v>64.20507613495542</v>
       </c>
       <c r="K3" t="n">
         <v>109.736701548705</v>
@@ -31147,22 +31147,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>129.7693052673363</v>
+        <v>129.7693052673362</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.74734394093792</v>
+        <v>86.74734394093787</v>
       </c>
       <c r="R3" t="n">
-        <v>42.19335489375748</v>
+        <v>42.19335489375745</v>
       </c>
       <c r="S3" t="n">
-        <v>12.62283540372017</v>
+        <v>12.62283540372016</v>
       </c>
       <c r="T3" t="n">
-        <v>2.73917018560067</v>
+        <v>2.739170185600669</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04470898017846582</v>
+        <v>0.04470898017846579</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5697341080665697</v>
+        <v>0.5697341080665692</v>
       </c>
       <c r="H4" t="n">
-        <v>5.065454160810051</v>
+        <v>5.065454160810046</v>
       </c>
       <c r="I4" t="n">
-        <v>17.13345844985648</v>
+        <v>17.13345844985647</v>
       </c>
       <c r="J4" t="n">
-        <v>40.28020144030647</v>
+        <v>40.28020144030644</v>
       </c>
       <c r="K4" t="n">
-        <v>66.19274455537054</v>
+        <v>66.19274455537048</v>
       </c>
       <c r="L4" t="n">
-        <v>84.70392366655165</v>
+        <v>84.70392366655159</v>
       </c>
       <c r="M4" t="n">
-        <v>89.30841113992599</v>
+        <v>89.30841113992592</v>
       </c>
       <c r="N4" t="n">
-        <v>87.18485673713249</v>
+        <v>87.18485673713242</v>
       </c>
       <c r="O4" t="n">
-        <v>80.52932647471843</v>
+        <v>80.52932647471837</v>
       </c>
       <c r="P4" t="n">
-        <v>68.90675067016036</v>
+        <v>68.90675067016031</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.70746244910158</v>
+        <v>47.70746244910154</v>
       </c>
       <c r="R4" t="n">
-        <v>25.61731725906593</v>
+        <v>25.61731725906592</v>
       </c>
       <c r="S4" t="n">
-        <v>9.928911683305579</v>
+        <v>9.928911683305572</v>
       </c>
       <c r="T4" t="n">
-        <v>2.434318461738979</v>
+        <v>2.434318461738977</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0310764058945402</v>
+        <v>0.03107640589454018</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.839563090509206</v>
+        <v>1.839563090509207</v>
       </c>
       <c r="H11" t="n">
-        <v>18.83942550067741</v>
+        <v>18.83942550067742</v>
       </c>
       <c r="I11" t="n">
-        <v>70.91975604685625</v>
+        <v>70.91975604685626</v>
       </c>
       <c r="J11" t="n">
         <v>156.1306178531059</v>
@@ -31770,22 +31770,22 @@
         <v>290.2968524055319</v>
       </c>
       <c r="M11" t="n">
-        <v>323.0111825163749</v>
+        <v>323.011182516375</v>
       </c>
       <c r="N11" t="n">
-        <v>322.0780128856931</v>
+        <v>322.0780128856932</v>
       </c>
       <c r="O11" t="n">
         <v>309.9456856660333</v>
       </c>
       <c r="P11" t="n">
-        <v>264.5314718690872</v>
+        <v>264.5314718690873</v>
       </c>
       <c r="Q11" t="n">
         <v>198.6521186902262</v>
       </c>
       <c r="R11" t="n">
-        <v>115.554454984199</v>
+        <v>115.5544549841991</v>
       </c>
       <c r="S11" t="n">
         <v>41.91904392497859</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9842530252663182</v>
+        <v>0.9842530252663183</v>
       </c>
       <c r="H12" t="n">
-        <v>9.505812112440495</v>
+        <v>9.505812112440497</v>
       </c>
       <c r="I12" t="n">
         <v>33.88765898395</v>
@@ -31849,13 +31849,13 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M12" t="n">
-        <v>234.7989832111205</v>
+        <v>195.6737869523498</v>
       </c>
       <c r="N12" t="n">
         <v>224.0066613724355</v>
       </c>
       <c r="O12" t="n">
-        <v>195.0536364676413</v>
+        <v>234.1788327264121</v>
       </c>
       <c r="P12" t="n">
         <v>187.9491588335306</v>
@@ -31873,7 +31873,7 @@
         <v>3.967230395700641</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06475348850436306</v>
+        <v>0.06475348850436308</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8251646731812818</v>
+        <v>0.8251646731812819</v>
       </c>
       <c r="H13" t="n">
-        <v>7.336464094284493</v>
+        <v>7.336464094284494</v>
       </c>
       <c r="I13" t="n">
         <v>24.81495217166983</v>
       </c>
       <c r="J13" t="n">
-        <v>58.33914239391662</v>
+        <v>58.33914239391663</v>
       </c>
       <c r="K13" t="n">
-        <v>95.86913202960709</v>
+        <v>95.8691320296071</v>
       </c>
       <c r="L13" t="n">
         <v>122.6794824109699</v>
@@ -31937,19 +31937,19 @@
         <v>116.6332758056598</v>
       </c>
       <c r="P13" t="n">
-        <v>99.79991647276154</v>
+        <v>99.79991647276155</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.09628913338898</v>
+        <v>69.09628913338899</v>
       </c>
       <c r="R13" t="n">
-        <v>37.10240430504199</v>
+        <v>37.102404305042</v>
       </c>
       <c r="S13" t="n">
         <v>14.38036980444106</v>
       </c>
       <c r="T13" t="n">
-        <v>3.525703603592749</v>
+        <v>3.52570360359275</v>
       </c>
       <c r="U13" t="n">
         <v>0.04500898217352452</v>
@@ -32007,10 +32007,10 @@
         <v>290.2968524055319</v>
       </c>
       <c r="M14" t="n">
-        <v>323.0111825163749</v>
+        <v>323.011182516375</v>
       </c>
       <c r="N14" t="n">
-        <v>322.0780128856931</v>
+        <v>322.0780128856932</v>
       </c>
       <c r="O14" t="n">
         <v>309.9456856660333</v>
@@ -32080,16 +32080,16 @@
         <v>92.99032639149897</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>158.9352790843423</v>
       </c>
       <c r="L15" t="n">
-        <v>213.7080965605662</v>
+        <v>153.4890601918121</v>
       </c>
       <c r="M15" t="n">
-        <v>234.7989832111205</v>
+        <v>234.7989832111206</v>
       </c>
       <c r="N15" t="n">
-        <v>184.8814651136646</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O15" t="n">
         <v>234.1788327264121</v>
@@ -32247,7 +32247,7 @@
         <v>323.011182516375</v>
       </c>
       <c r="N17" t="n">
-        <v>322.0780128856931</v>
+        <v>322.0780128856932</v>
       </c>
       <c r="O17" t="n">
         <v>309.9456856660333</v>
@@ -32317,16 +32317,16 @@
         <v>92.99032639149897</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>158.9352790843423</v>
       </c>
       <c r="L18" t="n">
         <v>213.7080965605662</v>
       </c>
       <c r="M18" t="n">
-        <v>195.6737869523496</v>
+        <v>234.7989832111206</v>
       </c>
       <c r="N18" t="n">
-        <v>224.0066613724355</v>
+        <v>163.7876250036815</v>
       </c>
       <c r="O18" t="n">
         <v>234.1788327264121</v>
@@ -32560,16 +32560,16 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M21" t="n">
-        <v>174.5799468423664</v>
+        <v>234.7989832111206</v>
       </c>
       <c r="N21" t="n">
-        <v>224.0066613724355</v>
+        <v>217.7623764228818</v>
       </c>
       <c r="O21" t="n">
         <v>234.1788327264121</v>
       </c>
       <c r="P21" t="n">
-        <v>187.9491588335306</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>125.6390352953988</v>
@@ -32797,10 +32797,10 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M24" t="n">
-        <v>192.8105496771767</v>
+        <v>240.9588114727117</v>
       </c>
       <c r="N24" t="n">
-        <v>230.1664896340267</v>
+        <v>182.0182278384917</v>
       </c>
       <c r="O24" t="n">
         <v>234.1788327264121</v>
@@ -33274,13 +33274,13 @@
         <v>240.9588114727117</v>
       </c>
       <c r="N30" t="n">
-        <v>182.0182278384917</v>
+        <v>230.1664896340267</v>
       </c>
       <c r="O30" t="n">
         <v>234.1788327264121</v>
       </c>
       <c r="P30" t="n">
-        <v>187.9491588335306</v>
+        <v>139.8008970379955</v>
       </c>
       <c r="Q30" t="n">
         <v>125.6390352953988</v>
@@ -33508,13 +33508,13 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M33" t="n">
-        <v>240.9588114727117</v>
+        <v>192.8105496771767</v>
       </c>
       <c r="N33" t="n">
         <v>230.1664896340267</v>
       </c>
       <c r="O33" t="n">
-        <v>186.030570930877</v>
+        <v>234.1788327264121</v>
       </c>
       <c r="P33" t="n">
         <v>187.9491588335306</v>
@@ -33739,16 +33739,16 @@
         <v>92.99032639149897</v>
       </c>
       <c r="K36" t="n">
-        <v>158.9352790843423</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>213.7080965605662</v>
       </c>
       <c r="M36" t="n">
-        <v>174.5799468423664</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N36" t="n">
-        <v>224.0066613724355</v>
+        <v>184.8814651136647</v>
       </c>
       <c r="O36" t="n">
         <v>234.1788327264121</v>
@@ -33903,10 +33903,10 @@
         <v>290.2968524055319</v>
       </c>
       <c r="M38" t="n">
-        <v>323.011182516375</v>
+        <v>323.0111825163749</v>
       </c>
       <c r="N38" t="n">
-        <v>322.0780128856932</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O38" t="n">
         <v>309.9456856660333</v>
@@ -34380,7 +34380,7 @@
         <v>323.011182516375</v>
       </c>
       <c r="N44" t="n">
-        <v>322.0780128856931</v>
+        <v>322.0780128856932</v>
       </c>
       <c r="O44" t="n">
         <v>309.9456856660333</v>
@@ -34456,13 +34456,13 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M45" t="n">
-        <v>174.5799468423664</v>
+        <v>234.7989832111206</v>
       </c>
       <c r="N45" t="n">
-        <v>224.0066613724355</v>
+        <v>224.0066613724356</v>
       </c>
       <c r="O45" t="n">
-        <v>234.1788327264121</v>
+        <v>173.9597963576581</v>
       </c>
       <c r="P45" t="n">
         <v>187.9491588335306</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>13.90947242938012</v>
+        <v>13.90947242938014</v>
       </c>
       <c r="L11" t="n">
         <v>54.53043743554463</v>
       </c>
       <c r="M11" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="N11" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="O11" t="n">
-        <v>79.84747424434656</v>
+        <v>79.84747424434661</v>
       </c>
       <c r="P11" t="n">
-        <v>33.29847611381769</v>
+        <v>33.29847611381774</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>75.15371678069198</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M12" t="n">
-        <v>92.6649492891022</v>
+        <v>53.53975303033145</v>
       </c>
       <c r="N12" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="O12" t="n">
-        <v>52.45739202319682</v>
+        <v>91.5825882819677</v>
       </c>
       <c r="P12" t="n">
         <v>53.97475141920032</v>
@@ -35655,10 +35655,10 @@
         <v>54.53043743554463</v>
       </c>
       <c r="M14" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="N14" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="O14" t="n">
         <v>79.84747424434661</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L15" t="n">
-        <v>75.15371678069201</v>
+        <v>14.93468041193793</v>
       </c>
       <c r="M15" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="N15" t="n">
-        <v>53.53975303033131</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="O15" t="n">
         <v>91.5825882819677</v>
@@ -35892,10 +35892,10 @@
         <v>54.53043743554463</v>
       </c>
       <c r="M17" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="N17" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="O17" t="n">
         <v>79.84747424434661</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L18" t="n">
         <v>75.15371678069201</v>
       </c>
       <c r="M18" t="n">
-        <v>53.53975303033131</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="N18" t="n">
-        <v>92.6649492891022</v>
+        <v>32.44591292034814</v>
       </c>
       <c r="O18" t="n">
         <v>91.5825882819677</v>
@@ -36129,10 +36129,10 @@
         <v>54.53043743554463</v>
       </c>
       <c r="M20" t="n">
-        <v>92.66494928910222</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="N20" t="n">
-        <v>92.66494928910222</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="O20" t="n">
         <v>79.84747424434661</v>
@@ -36208,16 +36208,16 @@
         <v>75.15371678069201</v>
       </c>
       <c r="M21" t="n">
-        <v>32.44591292034811</v>
+        <v>92.66494928910224</v>
       </c>
       <c r="N21" t="n">
-        <v>92.66494928910222</v>
+        <v>86.42066433954848</v>
       </c>
       <c r="O21" t="n">
         <v>91.5825882819677</v>
       </c>
       <c r="P21" t="n">
-        <v>53.97475141920032</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36445,10 +36445,10 @@
         <v>75.15371678069201</v>
       </c>
       <c r="M24" t="n">
-        <v>50.67651575515833</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="N24" t="n">
-        <v>98.8247775506934</v>
+        <v>50.67651575515835</v>
       </c>
       <c r="O24" t="n">
         <v>91.5825882819677</v>
@@ -36922,13 +36922,13 @@
         <v>98.8247775506934</v>
       </c>
       <c r="N30" t="n">
-        <v>50.67651575515835</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="O30" t="n">
         <v>91.5825882819677</v>
       </c>
       <c r="P30" t="n">
-        <v>53.97475141920032</v>
+        <v>5.826489623665269</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>75.15371678069201</v>
       </c>
       <c r="M33" t="n">
-        <v>98.8247775506934</v>
+        <v>50.67651575515833</v>
       </c>
       <c r="N33" t="n">
         <v>98.8247775506934</v>
       </c>
       <c r="O33" t="n">
-        <v>43.43432648643262</v>
+        <v>91.5825882819677</v>
       </c>
       <c r="P33" t="n">
         <v>53.97475141920032</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>21.09384010998329</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>75.15371678069201</v>
       </c>
       <c r="M36" t="n">
-        <v>32.44591292034811</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="N36" t="n">
-        <v>92.66494928910222</v>
+        <v>53.5397530303314</v>
       </c>
       <c r="O36" t="n">
         <v>91.5825882819677</v>
@@ -37551,10 +37551,10 @@
         <v>54.53043743554463</v>
       </c>
       <c r="M38" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N38" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O38" t="n">
         <v>79.84747424434661</v>
@@ -37630,10 +37630,10 @@
         <v>75.15371678069201</v>
       </c>
       <c r="M39" t="n">
-        <v>32.44591292034811</v>
+        <v>32.44591292034803</v>
       </c>
       <c r="N39" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O39" t="n">
         <v>91.5825882819677</v>
@@ -37788,10 +37788,10 @@
         <v>54.53043743554463</v>
       </c>
       <c r="M41" t="n">
-        <v>92.66494928910221</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N41" t="n">
-        <v>92.66494928910221</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O41" t="n">
         <v>79.84747424434661</v>
@@ -37867,10 +37867,10 @@
         <v>75.15371678069201</v>
       </c>
       <c r="M42" t="n">
-        <v>32.44591292034806</v>
+        <v>32.44591292034803</v>
       </c>
       <c r="N42" t="n">
-        <v>92.66494928910221</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O42" t="n">
         <v>91.5825882819677</v>
@@ -38025,10 +38025,10 @@
         <v>54.53043743554463</v>
       </c>
       <c r="M44" t="n">
-        <v>92.66494928910221</v>
+        <v>92.66494928910225</v>
       </c>
       <c r="N44" t="n">
-        <v>92.66494928910221</v>
+        <v>92.66494928910225</v>
       </c>
       <c r="O44" t="n">
         <v>79.84747424434661</v>
@@ -38104,13 +38104,13 @@
         <v>75.15371678069201</v>
       </c>
       <c r="M45" t="n">
-        <v>32.44591292034806</v>
+        <v>92.66494928910225</v>
       </c>
       <c r="N45" t="n">
-        <v>92.66494928910221</v>
+        <v>92.66494928910225</v>
       </c>
       <c r="O45" t="n">
-        <v>91.5825882819677</v>
+        <v>31.36355191321363</v>
       </c>
       <c r="P45" t="n">
         <v>53.97475141920032</v>
